--- a/page/eb09/s02/eb09-s02.xlsx
+++ b/page/eb09/s02/eb09-s02.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\eb-corpus\production\eb09\s02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp2\page\eb09\s02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C69328-8166-4FD5-8091-4FEA642AFF71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
+    <workbookView xWindow="-23730" yWindow="255" windowWidth="19815" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eb09-s02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="533">
-  <si>
-    <t>comments</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="539">
   <si>
     <t>p-pg</t>
   </si>
@@ -35,21 +39,12 @@
     <t>scan-by</t>
   </si>
   <si>
-    <t>output-date</t>
-  </si>
-  <si>
     <t>image-fn.jp2</t>
   </si>
   <si>
-    <t>notes-prd</t>
-  </si>
-  <si>
     <t>tei-fn.xml</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
     <t>blank page</t>
   </si>
   <si>
@@ -1616,19 +1611,49 @@
     <t>Scandanavian; entry stub label added to html</t>
   </si>
   <si>
-    <t>Scandanavian; added @@ for n4 to html</t>
-  </si>
-  <si>
-    <t>Index ; fn5 is used twice for same text. Corrected in html by adding 2nd fn text.</t>
-  </si>
-  <si>
     <t>output-fn.docx</t>
+  </si>
+  <si>
+    <t>output-dt</t>
+  </si>
+  <si>
+    <t>valid-dt</t>
+  </si>
+  <si>
+    <t>cleanup-dt</t>
+  </si>
+  <si>
+    <t>afr-comments</t>
+  </si>
+  <si>
+    <t>tei-p-comments</t>
+  </si>
+  <si>
+    <t>removed &lt;list&gt;</t>
+  </si>
+  <si>
+    <t>removed &lt;list&gt;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandanavian; </t>
+  </si>
+  <si>
+    <t>added @@ for n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index ; fn5 is used twice for same text. </t>
+  </si>
+  <si>
+    <t>duplicated note text, added @@</t>
+  </si>
+  <si>
+    <t>20 lists  removed from this section.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1699,32 +1724,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2006,27 +2027,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="5" customWidth="1"/>
     <col min="12" max="12" width="46.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="53.42578125" style="2" customWidth="1"/>
@@ -2035,184 +2056,199 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>5</v>
+      <c r="I1" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>529</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>0</v>
+        <v>530</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>531</v>
       </c>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="11">
+        <v>264</v>
+      </c>
+      <c r="C2" s="10">
         <v>21</v>
       </c>
       <c r="D2">
         <v>370</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>9</v>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2" s="16">
+        <v>524</v>
+      </c>
+      <c r="G2" s="13">
         <v>43483</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="H2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
         <v>43508</v>
       </c>
+      <c r="J2" s="11">
+        <v>43620</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="11">
+        <v>265</v>
+      </c>
+      <c r="C3" s="10">
         <v>21</v>
       </c>
       <c r="D3">
         <v>371</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="F3"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="14" t="s">
-        <v>10</v>
+      <c r="G3" s="13"/>
+      <c r="H3" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="11">
+        <v>266</v>
+      </c>
+      <c r="C4" s="10">
         <v>21</v>
       </c>
       <c r="D4">
         <v>372</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>11</v>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F4"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="14" t="s">
-        <v>11</v>
+      <c r="G4" s="13"/>
+      <c r="H4" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="11">
+        <v>267</v>
+      </c>
+      <c r="C5" s="10">
         <v>21</v>
       </c>
       <c r="D5">
         <v>373</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>12</v>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14" t="s">
-        <v>12</v>
+      <c r="G5" s="13"/>
+      <c r="H5" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="11">
+        <v>268</v>
+      </c>
+      <c r="C6" s="10">
         <v>21</v>
       </c>
       <c r="D6">
         <v>374</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14" t="s">
-        <v>13</v>
+      <c r="G6" s="13"/>
+      <c r="H6" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="11">
+        <v>269</v>
+      </c>
+      <c r="C7" s="10">
         <v>21</v>
       </c>
       <c r="D7">
         <v>375</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F7"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14" t="s">
-        <v>14</v>
+      <c r="G7" s="13"/>
+      <c r="H7" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="K7" s="1"/>
       <c r="M7" s="2"/>
@@ -2220,43 +2256,46 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="11">
+        <v>270</v>
+      </c>
+      <c r="C8" s="10">
         <v>21</v>
       </c>
       <c r="D8">
         <v>376</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14" t="s">
-        <v>15</v>
+      <c r="G8" s="13"/>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="11">
+        <v>271</v>
+      </c>
+      <c r="C9" s="10">
         <v>21</v>
       </c>
       <c r="D9">
         <v>377</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>16</v>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14" t="s">
-        <v>16</v>
+      <c r="G9" s="13"/>
+      <c r="H9" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="K9" s="1"/>
       <c r="M9" s="2"/>
@@ -2264,21 +2303,21 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="11">
+        <v>272</v>
+      </c>
+      <c r="C10" s="10">
         <v>21</v>
       </c>
       <c r="D10">
         <v>378</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>17</v>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F10"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14" t="s">
-        <v>17</v>
+      <c r="G10" s="13"/>
+      <c r="H10" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="1"/>
       <c r="M10" s="2"/>
@@ -2286,69 +2325,69 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="11">
+        <v>273</v>
+      </c>
+      <c r="C11" s="10">
         <v>21</v>
       </c>
       <c r="D11">
         <v>379</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F11"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14" t="s">
-        <v>18</v>
+      <c r="G11" s="13"/>
+      <c r="H11" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="11">
+        <v>274</v>
+      </c>
+      <c r="C12" s="10">
         <v>21</v>
       </c>
       <c r="D12">
         <v>380</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>19</v>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14" t="s">
-        <v>19</v>
+      <c r="G12" s="13"/>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="11">
+        <v>275</v>
+      </c>
+      <c r="C13" s="10">
         <v>21</v>
       </c>
       <c r="D13">
         <v>381</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14" t="s">
-        <v>20</v>
+      <c r="G13" s="13"/>
+      <c r="H13" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
@@ -2356,21 +2395,21 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="11">
+        <v>276</v>
+      </c>
+      <c r="C14" s="10">
         <v>21</v>
       </c>
       <c r="D14">
         <v>382</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>21</v>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14" t="s">
-        <v>21</v>
+      <c r="G14" s="13"/>
+      <c r="H14" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="1"/>
       <c r="M14" s="2"/>
@@ -2378,21 +2417,21 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="11">
+        <v>277</v>
+      </c>
+      <c r="C15" s="10">
         <v>21</v>
       </c>
       <c r="D15">
         <v>383</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>22</v>
+      <c r="E15" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14" t="s">
-        <v>22</v>
+      <c r="G15" s="13"/>
+      <c r="H15" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="1"/>
       <c r="M15" s="2"/>
@@ -2400,45 +2439,45 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="11">
+        <v>278</v>
+      </c>
+      <c r="C16" s="10">
         <v>21</v>
       </c>
       <c r="D16">
         <v>384</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>23</v>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14" t="s">
-        <v>23</v>
+      <c r="G16" s="13"/>
+      <c r="H16" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="11">
+        <v>279</v>
+      </c>
+      <c r="C17" s="10">
         <v>21</v>
       </c>
       <c r="D17">
         <v>385</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>24</v>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14" t="s">
-        <v>24</v>
+      <c r="G17" s="13"/>
+      <c r="H17" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="K17" s="1"/>
       <c r="M17" s="2"/>
@@ -2446,21 +2485,21 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="11">
+        <v>280</v>
+      </c>
+      <c r="C18" s="10">
         <v>21</v>
       </c>
       <c r="D18">
         <v>386</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>25</v>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F18"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14" t="s">
-        <v>25</v>
+      <c r="G18" s="13"/>
+      <c r="H18" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="K18" s="1"/>
       <c r="M18" s="2"/>
@@ -2468,21 +2507,21 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="11">
+        <v>281</v>
+      </c>
+      <c r="C19" s="10">
         <v>21</v>
       </c>
       <c r="D19">
         <v>387</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>26</v>
+      <c r="E19" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F19"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="14" t="s">
-        <v>26</v>
+      <c r="G19" s="13"/>
+      <c r="H19" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="K19" s="1"/>
       <c r="M19" s="2"/>
@@ -2490,21 +2529,21 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="11">
+        <v>282</v>
+      </c>
+      <c r="C20" s="10">
         <v>21</v>
       </c>
       <c r="D20">
         <v>388</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
+      <c r="E20" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="14" t="s">
-        <v>27</v>
+      <c r="G20" s="13"/>
+      <c r="H20" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -2512,21 +2551,21 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="11">
+        <v>283</v>
+      </c>
+      <c r="C21" s="10">
         <v>21</v>
       </c>
       <c r="D21">
         <v>389</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>28</v>
+      <c r="E21" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F21"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="14" t="s">
-        <v>28</v>
+      <c r="G21" s="13"/>
+      <c r="H21" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="1"/>
       <c r="M21" s="2"/>
@@ -2534,21 +2573,21 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="11">
+        <v>284</v>
+      </c>
+      <c r="C22" s="10">
         <v>21</v>
       </c>
       <c r="D22">
         <v>390</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>29</v>
+      <c r="E22" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F22"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14" t="s">
-        <v>29</v>
+      <c r="G22" s="13"/>
+      <c r="H22" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="K22" s="7"/>
       <c r="M22" s="2"/>
@@ -2556,21 +2595,21 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="11">
+        <v>285</v>
+      </c>
+      <c r="C23" s="10">
         <v>21</v>
       </c>
       <c r="D23">
         <v>391</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>30</v>
+      <c r="E23" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F23"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="14" t="s">
-        <v>30</v>
+      <c r="G23" s="13"/>
+      <c r="H23" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K23" s="1"/>
       <c r="M23" s="2"/>
@@ -2578,21 +2617,21 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C24" s="11">
+        <v>286</v>
+      </c>
+      <c r="C24" s="10">
         <v>21</v>
       </c>
       <c r="D24">
         <v>392</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>31</v>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="F24"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="14" t="s">
-        <v>31</v>
+      <c r="G24" s="13"/>
+      <c r="H24" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="K24" s="8"/>
       <c r="M24" s="2"/>
@@ -2600,43 +2639,46 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" s="11">
+        <v>287</v>
+      </c>
+      <c r="C25" s="10">
         <v>21</v>
       </c>
       <c r="D25">
         <v>393</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>32</v>
+      <c r="E25" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F25"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="14" t="s">
-        <v>32</v>
+      <c r="G25" s="13"/>
+      <c r="H25" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="11">
+        <v>288</v>
+      </c>
+      <c r="C26" s="10">
         <v>21</v>
       </c>
       <c r="D26">
         <v>394</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>33</v>
+      <c r="E26" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="F26"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="14" t="s">
-        <v>33</v>
+      <c r="G26" s="13"/>
+      <c r="H26" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="K26" s="1"/>
       <c r="M26" s="2"/>
@@ -2644,21 +2686,21 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="11">
+        <v>289</v>
+      </c>
+      <c r="C27" s="10">
         <v>21</v>
       </c>
       <c r="D27">
         <v>395</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>34</v>
+      <c r="E27" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F27"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="14" t="s">
-        <v>34</v>
+      <c r="G27" s="13"/>
+      <c r="H27" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="K27" s="1"/>
       <c r="M27" s="2"/>
@@ -2666,21 +2708,21 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" s="11">
+        <v>290</v>
+      </c>
+      <c r="C28" s="10">
         <v>21</v>
       </c>
       <c r="D28">
         <v>396</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>35</v>
+      <c r="E28" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F28"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="14" t="s">
-        <v>35</v>
+      <c r="G28" s="13"/>
+      <c r="H28" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="K28" s="1"/>
       <c r="M28" s="2"/>
@@ -2688,21 +2730,21 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="11">
+        <v>291</v>
+      </c>
+      <c r="C29" s="10">
         <v>21</v>
       </c>
       <c r="D29">
         <v>397</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>36</v>
+      <c r="E29" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F29"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="14" t="s">
-        <v>36</v>
+      <c r="G29" s="13"/>
+      <c r="H29" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="K29" s="1"/>
       <c r="M29" s="2"/>
@@ -2710,21 +2752,21 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="11">
+        <v>292</v>
+      </c>
+      <c r="C30" s="10">
         <v>21</v>
       </c>
       <c r="D30">
         <v>398</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>37</v>
+      <c r="E30" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F30"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14" t="s">
-        <v>37</v>
+      <c r="G30" s="13"/>
+      <c r="H30" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K30" s="8"/>
       <c r="M30" s="2"/>
@@ -2732,21 +2774,21 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="11">
+        <v>293</v>
+      </c>
+      <c r="C31" s="10">
         <v>21</v>
       </c>
       <c r="D31">
         <v>399</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>38</v>
+      <c r="E31" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F31"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="14" t="s">
-        <v>38</v>
+      <c r="G31" s="13"/>
+      <c r="H31" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K31" s="1"/>
       <c r="M31" s="2"/>
@@ -2754,21 +2796,21 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C32" s="11">
+        <v>294</v>
+      </c>
+      <c r="C32" s="10">
         <v>21</v>
       </c>
       <c r="D32">
         <v>400</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>39</v>
+      <c r="E32" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F32"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="14" t="s">
-        <v>39</v>
+      <c r="G32" s="13"/>
+      <c r="H32" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="K32" s="1"/>
       <c r="M32" s="2"/>
@@ -2776,21 +2818,21 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="11">
+        <v>295</v>
+      </c>
+      <c r="C33" s="10">
         <v>21</v>
       </c>
       <c r="D33">
         <v>401</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>40</v>
+      <c r="E33" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="F33"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="14" t="s">
-        <v>40</v>
+      <c r="G33" s="13"/>
+      <c r="H33" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="K33" s="1"/>
       <c r="M33" s="2"/>
@@ -2798,21 +2840,21 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="11">
+        <v>296</v>
+      </c>
+      <c r="C34" s="10">
         <v>21</v>
       </c>
       <c r="D34">
         <v>402</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>41</v>
+      <c r="E34" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F34"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="14" t="s">
-        <v>41</v>
+      <c r="G34" s="13"/>
+      <c r="H34" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="K34" s="1"/>
       <c r="M34" s="2"/>
@@ -2820,21 +2862,21 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" s="11">
+        <v>297</v>
+      </c>
+      <c r="C35" s="10">
         <v>21</v>
       </c>
       <c r="D35">
         <v>403</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>42</v>
+      <c r="E35" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F35"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="14" t="s">
-        <v>42</v>
+      <c r="G35" s="13"/>
+      <c r="H35" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="K35" s="1"/>
       <c r="M35" s="2"/>
@@ -2842,21 +2884,21 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C36" s="11">
+        <v>298</v>
+      </c>
+      <c r="C36" s="10">
         <v>21</v>
       </c>
       <c r="D36">
         <v>404</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>43</v>
+      <c r="E36" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F36"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="14" t="s">
-        <v>43</v>
+      <c r="G36" s="13"/>
+      <c r="H36" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="K36" s="1"/>
       <c r="M36" s="2"/>
@@ -2864,43 +2906,46 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="11">
+        <v>299</v>
+      </c>
+      <c r="C37" s="10">
         <v>21</v>
       </c>
       <c r="D37">
         <v>405</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>44</v>
+      <c r="E37" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F37"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="14" t="s">
-        <v>44</v>
+      <c r="G37" s="13"/>
+      <c r="H37" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="11">
+        <v>300</v>
+      </c>
+      <c r="C38" s="10">
         <v>21</v>
       </c>
       <c r="D38">
         <v>406</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>45</v>
+      <c r="E38" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F38"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="14" t="s">
-        <v>45</v>
+      <c r="G38" s="13"/>
+      <c r="H38" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="K38" s="1"/>
       <c r="M38" s="2"/>
@@ -2908,21 +2953,21 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C39" s="11">
+        <v>301</v>
+      </c>
+      <c r="C39" s="10">
         <v>21</v>
       </c>
       <c r="D39">
         <v>407</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>46</v>
+      <c r="E39" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F39"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="14" t="s">
-        <v>46</v>
+      <c r="G39" s="13"/>
+      <c r="H39" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="K39" s="1"/>
       <c r="M39" s="2"/>
@@ -2930,21 +2975,21 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C40" s="11">
+        <v>302</v>
+      </c>
+      <c r="C40" s="10">
         <v>21</v>
       </c>
       <c r="D40">
         <v>408</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>47</v>
+      <c r="E40" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="F40"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="14" t="s">
-        <v>47</v>
+      <c r="G40" s="13"/>
+      <c r="H40" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="K40" s="1"/>
       <c r="M40" s="2"/>
@@ -2952,21 +2997,21 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C41" s="11">
+        <v>303</v>
+      </c>
+      <c r="C41" s="10">
         <v>21</v>
       </c>
       <c r="D41">
         <v>409</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>48</v>
+      <c r="E41" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="F41"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="14" t="s">
-        <v>48</v>
+      <c r="G41" s="13"/>
+      <c r="H41" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="K41" s="1"/>
       <c r="M41" s="2"/>
@@ -2974,21 +3019,21 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="11">
+        <v>304</v>
+      </c>
+      <c r="C42" s="10">
         <v>21</v>
       </c>
       <c r="D42">
         <v>410</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>49</v>
+      <c r="E42" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F42"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="14" t="s">
-        <v>49</v>
+      <c r="G42" s="13"/>
+      <c r="H42" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K42" s="1"/>
       <c r="M42" s="2"/>
@@ -2996,21 +3041,21 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" s="11">
+        <v>305</v>
+      </c>
+      <c r="C43" s="10">
         <v>21</v>
       </c>
       <c r="D43">
         <v>411</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>50</v>
+      <c r="E43" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="F43"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="14" t="s">
-        <v>50</v>
+      <c r="G43" s="13"/>
+      <c r="H43" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="K43" s="1"/>
       <c r="M43" s="2"/>
@@ -3018,21 +3063,21 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C44" s="11">
+        <v>306</v>
+      </c>
+      <c r="C44" s="10">
         <v>21</v>
       </c>
       <c r="D44">
         <v>412</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>51</v>
+      <c r="E44" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F44"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="14" t="s">
-        <v>51</v>
+      <c r="G44" s="13"/>
+      <c r="H44" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="K44" s="1"/>
       <c r="M44" s="2"/>
@@ -3040,21 +3085,21 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="11">
+        <v>307</v>
+      </c>
+      <c r="C45" s="10">
         <v>21</v>
       </c>
       <c r="D45">
         <v>413</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>52</v>
+      <c r="E45" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F45"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="14" t="s">
-        <v>52</v>
+      <c r="G45" s="13"/>
+      <c r="H45" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="K45" s="1"/>
       <c r="M45" s="2"/>
@@ -3062,21 +3107,21 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="11">
+        <v>308</v>
+      </c>
+      <c r="C46" s="10">
         <v>21</v>
       </c>
       <c r="D46">
         <v>414</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>53</v>
+      <c r="E46" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F46"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="14" t="s">
-        <v>53</v>
+      <c r="G46" s="13"/>
+      <c r="H46" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="K46" s="1"/>
       <c r="M46" s="2"/>
@@ -3084,21 +3129,21 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C47" s="11">
+        <v>309</v>
+      </c>
+      <c r="C47" s="10">
         <v>21</v>
       </c>
       <c r="D47">
         <v>415</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>54</v>
+      <c r="E47" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F47"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="14" t="s">
-        <v>54</v>
+      <c r="G47" s="13"/>
+      <c r="H47" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="K47" s="1"/>
       <c r="M47" s="2"/>
@@ -3106,21 +3151,21 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="11">
+        <v>310</v>
+      </c>
+      <c r="C48" s="10">
         <v>21</v>
       </c>
       <c r="D48">
         <v>416</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>55</v>
+      <c r="E48" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F48"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="14" t="s">
-        <v>55</v>
+      <c r="G48" s="13"/>
+      <c r="H48" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="K48" s="1"/>
       <c r="M48" s="2"/>
@@ -3128,21 +3173,21 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="11">
+        <v>311</v>
+      </c>
+      <c r="C49" s="10">
         <v>21</v>
       </c>
       <c r="D49">
         <v>417</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>56</v>
+      <c r="E49" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F49"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="14" t="s">
-        <v>56</v>
+      <c r="G49" s="13"/>
+      <c r="H49" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="K49" s="1"/>
       <c r="M49" s="2"/>
@@ -3150,21 +3195,21 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" s="11">
+        <v>312</v>
+      </c>
+      <c r="C50" s="10">
         <v>21</v>
       </c>
       <c r="D50">
         <v>418</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>57</v>
+      <c r="E50" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F50"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="14" t="s">
-        <v>57</v>
+      <c r="G50" s="13"/>
+      <c r="H50" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="K50" s="1"/>
       <c r="M50" s="2"/>
@@ -3172,21 +3217,21 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C51" s="11">
+        <v>313</v>
+      </c>
+      <c r="C51" s="10">
         <v>21</v>
       </c>
       <c r="D51">
         <v>419</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>58</v>
+      <c r="E51" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="F51"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="14" t="s">
-        <v>58</v>
+      <c r="G51" s="13"/>
+      <c r="H51" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="K51" s="1"/>
       <c r="M51" s="2"/>
@@ -3194,21 +3239,21 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C52" s="11">
+        <v>314</v>
+      </c>
+      <c r="C52" s="10">
         <v>21</v>
       </c>
       <c r="D52">
         <v>420</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>59</v>
+      <c r="E52" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="F52"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="14" t="s">
-        <v>59</v>
+      <c r="G52" s="13"/>
+      <c r="H52" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="K52" s="1"/>
       <c r="M52" s="2"/>
@@ -3216,21 +3261,21 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C53" s="11">
+        <v>315</v>
+      </c>
+      <c r="C53" s="10">
         <v>21</v>
       </c>
       <c r="D53">
         <v>421</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>60</v>
+      <c r="E53" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F53"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="14" t="s">
-        <v>60</v>
+      <c r="G53" s="13"/>
+      <c r="H53" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="K53" s="1"/>
       <c r="M53" s="2"/>
@@ -3238,21 +3283,21 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="11">
+        <v>316</v>
+      </c>
+      <c r="C54" s="10">
         <v>21</v>
       </c>
       <c r="D54">
         <v>422</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>61</v>
+      <c r="E54" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F54"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="14" t="s">
-        <v>61</v>
+      <c r="G54" s="13"/>
+      <c r="H54" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="K54" s="1"/>
       <c r="M54" s="2"/>
@@ -3260,21 +3305,21 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C55" s="11">
+        <v>317</v>
+      </c>
+      <c r="C55" s="10">
         <v>21</v>
       </c>
       <c r="D55">
         <v>423</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>62</v>
+      <c r="E55" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F55"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="14" t="s">
-        <v>62</v>
+      <c r="G55" s="13"/>
+      <c r="H55" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="K55" s="1"/>
       <c r="M55" s="2"/>
@@ -3282,21 +3327,21 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" s="11">
+        <v>318</v>
+      </c>
+      <c r="C56" s="10">
         <v>21</v>
       </c>
       <c r="D56">
         <v>424</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>63</v>
+      <c r="E56" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="F56"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="14" t="s">
-        <v>63</v>
+      <c r="G56" s="13"/>
+      <c r="H56" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="K56" s="1"/>
       <c r="M56" s="2"/>
@@ -3304,21 +3349,21 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C57" s="11">
+        <v>319</v>
+      </c>
+      <c r="C57" s="10">
         <v>21</v>
       </c>
       <c r="D57">
         <v>425</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>64</v>
+      <c r="E57" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F57"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="14" t="s">
-        <v>64</v>
+      <c r="G57" s="13"/>
+      <c r="H57" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="K57" s="1"/>
       <c r="M57" s="2"/>
@@ -3326,21 +3371,21 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" s="11">
+        <v>320</v>
+      </c>
+      <c r="C58" s="10">
         <v>21</v>
       </c>
       <c r="D58">
         <v>426</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>65</v>
+      <c r="E58" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="F58"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="14" t="s">
-        <v>65</v>
+      <c r="G58" s="13"/>
+      <c r="H58" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="K58" s="1"/>
       <c r="M58" s="2"/>
@@ -3348,21 +3393,21 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="11">
+        <v>321</v>
+      </c>
+      <c r="C59" s="10">
         <v>21</v>
       </c>
       <c r="D59">
         <v>427</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>66</v>
+      <c r="E59" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="F59"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="14" t="s">
-        <v>66</v>
+      <c r="G59" s="13"/>
+      <c r="H59" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="K59" s="1"/>
       <c r="M59" s="2"/>
@@ -3370,21 +3415,21 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C60" s="11">
+        <v>322</v>
+      </c>
+      <c r="C60" s="10">
         <v>21</v>
       </c>
       <c r="D60">
         <v>428</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>67</v>
+      <c r="E60" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="F60"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="14" t="s">
-        <v>67</v>
+      <c r="G60" s="13"/>
+      <c r="H60" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="K60" s="1"/>
       <c r="M60" s="2"/>
@@ -3392,21 +3437,21 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C61" s="11">
+        <v>323</v>
+      </c>
+      <c r="C61" s="10">
         <v>21</v>
       </c>
       <c r="D61">
         <v>429</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>68</v>
+      <c r="E61" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="F61"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="14" t="s">
-        <v>68</v>
+      <c r="G61" s="13"/>
+      <c r="H61" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="K61" s="1"/>
       <c r="M61" s="2"/>
@@ -3414,21 +3459,21 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C62" s="11">
+        <v>324</v>
+      </c>
+      <c r="C62" s="10">
         <v>21</v>
       </c>
       <c r="D62">
         <v>430</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>69</v>
+      <c r="E62" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F62"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="14" t="s">
-        <v>69</v>
+      <c r="G62" s="13"/>
+      <c r="H62" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="K62" s="1"/>
       <c r="M62" s="2"/>
@@ -3436,21 +3481,21 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C63" s="11">
+        <v>325</v>
+      </c>
+      <c r="C63" s="10">
         <v>21</v>
       </c>
       <c r="D63">
         <v>431</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>70</v>
+      <c r="E63" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="F63"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="14" t="s">
-        <v>70</v>
+      <c r="G63" s="13"/>
+      <c r="H63" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="K63" s="1"/>
       <c r="M63" s="2"/>
@@ -3458,21 +3503,21 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C64" s="11">
+        <v>326</v>
+      </c>
+      <c r="C64" s="10">
         <v>21</v>
       </c>
       <c r="D64">
         <v>432</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>71</v>
+      <c r="E64" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="F64"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="14" t="s">
-        <v>71</v>
+      <c r="G64" s="13"/>
+      <c r="H64" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="K64" s="1"/>
       <c r="M64" s="2"/>
@@ -3480,21 +3525,21 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C65" s="11">
+        <v>327</v>
+      </c>
+      <c r="C65" s="10">
         <v>21</v>
       </c>
       <c r="D65">
         <v>433</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>72</v>
+      <c r="E65" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F65"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="14" t="s">
-        <v>72</v>
+      <c r="G65" s="13"/>
+      <c r="H65" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="K65" s="1"/>
       <c r="M65" s="2"/>
@@ -3502,21 +3547,21 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" s="11">
+        <v>328</v>
+      </c>
+      <c r="C66" s="10">
         <v>21</v>
       </c>
       <c r="D66">
         <v>434</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>73</v>
+      <c r="E66" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F66"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="14" t="s">
-        <v>73</v>
+      <c r="G66" s="13"/>
+      <c r="H66" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="K66" s="1"/>
       <c r="M66" s="2"/>
@@ -3524,21 +3569,21 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C67" s="11">
+        <v>329</v>
+      </c>
+      <c r="C67" s="10">
         <v>21</v>
       </c>
       <c r="D67">
         <v>435</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>74</v>
+      <c r="E67" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F67"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="14" t="s">
-        <v>74</v>
+      <c r="G67" s="13"/>
+      <c r="H67" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="K67" s="1"/>
       <c r="M67" s="2"/>
@@ -3546,21 +3591,21 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C68" s="11">
+        <v>330</v>
+      </c>
+      <c r="C68" s="10">
         <v>21</v>
       </c>
       <c r="D68">
         <v>436</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>75</v>
+      <c r="E68" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F68"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="14" t="s">
-        <v>75</v>
+      <c r="G68" s="13"/>
+      <c r="H68" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="K68" s="1"/>
       <c r="M68" s="2"/>
@@ -3568,21 +3613,21 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C69" s="11">
+        <v>331</v>
+      </c>
+      <c r="C69" s="10">
         <v>21</v>
       </c>
       <c r="D69">
         <v>437</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>76</v>
+      <c r="E69" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="F69"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="14" t="s">
-        <v>76</v>
+      <c r="G69" s="13"/>
+      <c r="H69" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="K69" s="1"/>
       <c r="M69" s="2"/>
@@ -3590,20 +3635,20 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C70" s="11">
+        <v>332</v>
+      </c>
+      <c r="C70" s="10">
         <v>21</v>
       </c>
       <c r="D70">
         <v>438</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="14" t="s">
-        <v>77</v>
+      <c r="E70" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="K70" s="1"/>
       <c r="M70" s="2"/>
@@ -3611,20 +3656,20 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C71" s="11">
+        <v>333</v>
+      </c>
+      <c r="C71" s="10">
         <v>21</v>
       </c>
       <c r="D71">
         <v>439</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="14" t="s">
-        <v>78</v>
+      <c r="E71" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="K71" s="1"/>
       <c r="M71" s="2"/>
@@ -3632,20 +3677,20 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C72" s="11">
+        <v>334</v>
+      </c>
+      <c r="C72" s="10">
         <v>21</v>
       </c>
       <c r="D72">
         <v>440</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="14" t="s">
-        <v>79</v>
+      <c r="E72" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="K72" s="1"/>
       <c r="M72" s="2"/>
@@ -3653,20 +3698,20 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" s="11">
+        <v>335</v>
+      </c>
+      <c r="C73" s="10">
         <v>21</v>
       </c>
       <c r="D73">
         <v>441</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="14" t="s">
-        <v>80</v>
+      <c r="E73" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="K73" s="1"/>
       <c r="M73" s="2"/>
@@ -3674,89 +3719,98 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="11">
+        <v>336</v>
+      </c>
+      <c r="C74" s="10">
         <v>21</v>
       </c>
       <c r="D74">
         <v>442</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="14" t="s">
-        <v>81</v>
+      <c r="E74" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C75" s="11">
+        <v>337</v>
+      </c>
+      <c r="C75" s="10">
         <v>21</v>
       </c>
       <c r="D75">
         <v>443</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="14" t="s">
-        <v>82</v>
+      <c r="E75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C76" s="11">
+        <v>338</v>
+      </c>
+      <c r="C76" s="10">
         <v>21</v>
       </c>
       <c r="D76">
         <v>444</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="14" t="s">
-        <v>83</v>
+      <c r="E76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C77" s="11">
+        <v>339</v>
+      </c>
+      <c r="C77" s="10">
         <v>21</v>
       </c>
       <c r="D77">
         <v>445</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="14" t="s">
-        <v>84</v>
+      <c r="E77" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="K77" s="1"/>
       <c r="M77" s="2"/>
@@ -3764,20 +3818,20 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" s="11">
+        <v>340</v>
+      </c>
+      <c r="C78" s="10">
         <v>21</v>
       </c>
       <c r="D78">
         <v>446</v>
       </c>
-      <c r="E78" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="14" t="s">
-        <v>85</v>
+      <c r="E78" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="K78" s="1"/>
       <c r="M78" s="2"/>
@@ -3785,20 +3839,20 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="11">
+        <v>341</v>
+      </c>
+      <c r="C79" s="10">
         <v>21</v>
       </c>
       <c r="D79">
         <v>447</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="14" t="s">
-        <v>86</v>
+      <c r="E79" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="K79" s="1"/>
       <c r="M79" s="2"/>
@@ -3806,20 +3860,20 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C80" s="11">
+        <v>342</v>
+      </c>
+      <c r="C80" s="10">
         <v>21</v>
       </c>
       <c r="D80">
         <v>448</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="14" t="s">
-        <v>87</v>
+      <c r="E80" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="K80" s="1"/>
       <c r="M80" s="2"/>
@@ -3827,20 +3881,20 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" s="11">
+        <v>343</v>
+      </c>
+      <c r="C81" s="10">
         <v>21</v>
       </c>
       <c r="D81">
         <v>449</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="14" t="s">
-        <v>88</v>
+      <c r="E81" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="K81" s="1"/>
       <c r="M81" s="2"/>
@@ -3848,43 +3902,43 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C82" s="11">
+        <v>344</v>
+      </c>
+      <c r="C82" s="10">
         <v>21</v>
       </c>
       <c r="D82">
         <v>450</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="14" t="s">
-        <v>89</v>
+      <c r="E82" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C83" s="11">
+        <v>345</v>
+      </c>
+      <c r="C83" s="10">
         <v>21</v>
       </c>
       <c r="D83">
         <v>451</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="14" t="s">
-        <v>90</v>
+      <c r="E83" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="K83" s="1"/>
       <c r="M83" s="2"/>
@@ -3892,43 +3946,43 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C84" s="11">
+        <v>346</v>
+      </c>
+      <c r="C84" s="10">
         <v>21</v>
       </c>
       <c r="D84">
         <v>452</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="16"/>
-      <c r="H84" s="14" t="s">
-        <v>91</v>
+      <c r="E84" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C85" s="11">
+        <v>347</v>
+      </c>
+      <c r="C85" s="10">
         <v>21</v>
       </c>
       <c r="D85">
         <v>453</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="14" t="s">
-        <v>92</v>
+      <c r="E85" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="K85" s="1"/>
       <c r="M85" s="2"/>
@@ -3936,20 +3990,20 @@
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C86" s="11">
+        <v>348</v>
+      </c>
+      <c r="C86" s="10">
         <v>21</v>
       </c>
       <c r="D86">
         <v>454</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="14" t="s">
-        <v>93</v>
+      <c r="E86" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="K86" s="1"/>
       <c r="M86" s="2"/>
@@ -3957,43 +4011,43 @@
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C87" s="11">
+        <v>349</v>
+      </c>
+      <c r="C87" s="10">
         <v>21</v>
       </c>
       <c r="D87">
         <v>455</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="14" t="s">
-        <v>94</v>
+      <c r="E87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C88" s="11">
+        <v>350</v>
+      </c>
+      <c r="C88" s="10">
         <v>21</v>
       </c>
       <c r="D88">
         <v>456</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="14" t="s">
-        <v>95</v>
+      <c r="E88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="K88" s="1"/>
       <c r="M88" s="2"/>
@@ -4001,43 +4055,43 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" s="11">
+        <v>351</v>
+      </c>
+      <c r="C89" s="10">
         <v>21</v>
       </c>
       <c r="D89">
         <v>457</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" s="16"/>
-      <c r="H89" s="14" t="s">
-        <v>96</v>
+      <c r="E89" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" s="11">
+        <v>352</v>
+      </c>
+      <c r="C90" s="10">
         <v>21</v>
       </c>
       <c r="D90">
         <v>458</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="14" t="s">
-        <v>97</v>
+      <c r="E90" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="K90" s="1"/>
       <c r="M90" s="2"/>
@@ -4045,20 +4099,20 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C91" s="11">
+        <v>353</v>
+      </c>
+      <c r="C91" s="10">
         <v>21</v>
       </c>
       <c r="D91">
         <v>459</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="14" t="s">
-        <v>98</v>
+      <c r="E91" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="K91" s="1"/>
       <c r="M91" s="2"/>
@@ -4066,21 +4120,21 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C92" s="11">
+        <v>354</v>
+      </c>
+      <c r="C92" s="10">
         <v>21</v>
       </c>
       <c r="D92">
         <v>460</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>99</v>
+      <c r="E92" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="F92" s="9"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="14" t="s">
-        <v>99</v>
+      <c r="G92" s="13"/>
+      <c r="H92" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="K92" s="1"/>
       <c r="M92" s="2"/>
@@ -4088,21 +4142,21 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C93" s="11">
+        <v>355</v>
+      </c>
+      <c r="C93" s="10">
         <v>21</v>
       </c>
       <c r="D93">
         <v>461</v>
       </c>
-      <c r="E93" s="14" t="s">
-        <v>100</v>
+      <c r="E93" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F93" s="9"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="14" t="s">
-        <v>100</v>
+      <c r="G93" s="13"/>
+      <c r="H93" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="K93" s="1"/>
       <c r="M93" s="2"/>
@@ -4110,20 +4164,20 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C94" s="11">
+        <v>356</v>
+      </c>
+      <c r="C94" s="10">
         <v>21</v>
       </c>
       <c r="D94">
         <v>462</v>
       </c>
-      <c r="E94" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G94" s="16"/>
-      <c r="H94" s="14" t="s">
-        <v>101</v>
+      <c r="E94" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="K94" s="1"/>
       <c r="M94" s="2"/>
@@ -4131,20 +4185,20 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C95" s="11">
+        <v>357</v>
+      </c>
+      <c r="C95" s="10">
         <v>21</v>
       </c>
       <c r="D95">
         <v>463</v>
       </c>
-      <c r="E95" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" s="16"/>
-      <c r="H95" s="14" t="s">
-        <v>102</v>
+      <c r="E95" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="K95" s="1"/>
       <c r="M95" s="2"/>
@@ -4152,20 +4206,20 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C96" s="11">
+        <v>358</v>
+      </c>
+      <c r="C96" s="10">
         <v>21</v>
       </c>
       <c r="D96">
         <v>464</v>
       </c>
-      <c r="E96" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="14" t="s">
-        <v>103</v>
+      <c r="E96" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="K96" s="1"/>
       <c r="M96" s="2"/>
@@ -4173,66 +4227,66 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C97" s="11">
+        <v>359</v>
+      </c>
+      <c r="C97" s="10">
         <v>21</v>
       </c>
       <c r="D97">
         <v>465</v>
       </c>
-      <c r="E97" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="14" t="s">
-        <v>104</v>
+      <c r="E97" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" s="13"/>
+      <c r="H97" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C98" s="11">
+        <v>360</v>
+      </c>
+      <c r="C98" s="10">
         <v>21</v>
       </c>
       <c r="D98">
         <v>466</v>
       </c>
-      <c r="E98" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="14" t="s">
-        <v>105</v>
+      <c r="E98" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99" s="11">
+        <v>361</v>
+      </c>
+      <c r="C99" s="10">
         <v>21</v>
       </c>
       <c r="D99">
         <v>467</v>
       </c>
-      <c r="E99" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="14" t="s">
-        <v>106</v>
+      <c r="E99" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="K99" s="1"/>
       <c r="M99" s="2"/>
@@ -4240,20 +4294,20 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C100" s="11">
+        <v>362</v>
+      </c>
+      <c r="C100" s="10">
         <v>21</v>
       </c>
       <c r="D100">
         <v>468</v>
       </c>
-      <c r="E100" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="14" t="s">
-        <v>107</v>
+      <c r="E100" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="K100" s="1"/>
       <c r="M100" s="2"/>
@@ -4261,20 +4315,20 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C101" s="11">
+        <v>363</v>
+      </c>
+      <c r="C101" s="10">
         <v>21</v>
       </c>
       <c r="D101">
         <v>469</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" s="16"/>
-      <c r="H101" s="14" t="s">
-        <v>108</v>
+      <c r="E101" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="K101" s="1"/>
       <c r="M101" s="2"/>
@@ -4282,20 +4336,20 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C102" s="11">
+        <v>364</v>
+      </c>
+      <c r="C102" s="10">
         <v>21</v>
       </c>
       <c r="D102">
         <v>470</v>
       </c>
-      <c r="E102" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" s="16"/>
-      <c r="H102" s="14" t="s">
-        <v>109</v>
+      <c r="E102" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="K102" s="1"/>
       <c r="M102" s="2"/>
@@ -4303,20 +4357,20 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C103" s="11">
+        <v>365</v>
+      </c>
+      <c r="C103" s="10">
         <v>21</v>
       </c>
       <c r="D103">
         <v>471</v>
       </c>
-      <c r="E103" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" s="16"/>
-      <c r="H103" s="14" t="s">
-        <v>110</v>
+      <c r="E103" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="K103" s="1"/>
       <c r="M103" s="2"/>
@@ -4324,20 +4378,20 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C104" s="11">
+        <v>366</v>
+      </c>
+      <c r="C104" s="10">
         <v>21</v>
       </c>
       <c r="D104">
         <v>472</v>
       </c>
-      <c r="E104" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" s="16"/>
-      <c r="H104" s="14" t="s">
-        <v>111</v>
+      <c r="E104" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="K104" s="1"/>
       <c r="M104" s="2"/>
@@ -4345,20 +4399,20 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C105" s="11">
+        <v>367</v>
+      </c>
+      <c r="C105" s="10">
         <v>21</v>
       </c>
       <c r="D105">
         <v>473</v>
       </c>
-      <c r="E105" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" s="16"/>
-      <c r="H105" s="14" t="s">
-        <v>112</v>
+      <c r="E105" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="K105" s="1"/>
       <c r="M105" s="2"/>
@@ -4366,20 +4420,20 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C106" s="11">
+        <v>368</v>
+      </c>
+      <c r="C106" s="10">
         <v>21</v>
       </c>
       <c r="D106">
         <v>474</v>
       </c>
-      <c r="E106" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" s="16"/>
-      <c r="H106" s="14" t="s">
-        <v>113</v>
+      <c r="E106" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="K106" s="1"/>
       <c r="M106" s="2"/>
@@ -4387,20 +4441,20 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C107" s="11">
+        <v>369</v>
+      </c>
+      <c r="C107" s="10">
         <v>21</v>
       </c>
       <c r="D107">
         <v>475</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" s="16"/>
-      <c r="H107" s="14" t="s">
-        <v>114</v>
+      <c r="E107" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="K107" s="1"/>
       <c r="M107" s="2"/>
@@ -4408,20 +4462,20 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C108" s="11">
+        <v>370</v>
+      </c>
+      <c r="C108" s="10">
         <v>21</v>
       </c>
       <c r="D108">
         <v>476</v>
       </c>
-      <c r="E108" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G108" s="16"/>
-      <c r="H108" s="14" t="s">
-        <v>115</v>
+      <c r="E108" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="H108" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="K108" s="1"/>
       <c r="M108" s="2"/>
@@ -4429,20 +4483,20 @@
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="11">
+        <v>371</v>
+      </c>
+      <c r="C109" s="10">
         <v>21</v>
       </c>
       <c r="D109">
         <v>477</v>
       </c>
-      <c r="E109" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" s="16"/>
-      <c r="H109" s="14" t="s">
-        <v>116</v>
+      <c r="E109" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G109" s="13"/>
+      <c r="H109" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="K109" s="1"/>
       <c r="M109" s="2"/>
@@ -4450,20 +4504,20 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C110" s="11">
+        <v>372</v>
+      </c>
+      <c r="C110" s="10">
         <v>21</v>
       </c>
       <c r="D110">
         <v>478</v>
       </c>
-      <c r="E110" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G110" s="16"/>
-      <c r="H110" s="14" t="s">
-        <v>117</v>
+      <c r="E110" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="K110" s="1"/>
       <c r="M110" s="2"/>
@@ -4471,20 +4525,20 @@
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C111" s="11">
+        <v>373</v>
+      </c>
+      <c r="C111" s="10">
         <v>21</v>
       </c>
       <c r="D111">
         <v>479</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G111" s="16"/>
-      <c r="H111" s="14" t="s">
-        <v>118</v>
+      <c r="E111" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="K111" s="1"/>
       <c r="M111" s="2"/>
@@ -4492,20 +4546,20 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C112" s="11">
+        <v>374</v>
+      </c>
+      <c r="C112" s="10">
         <v>21</v>
       </c>
       <c r="D112">
         <v>480</v>
       </c>
-      <c r="E112" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" s="16"/>
-      <c r="H112" s="14" t="s">
-        <v>119</v>
+      <c r="E112" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="K112" s="1"/>
       <c r="M112" s="2"/>
@@ -4513,20 +4567,20 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C113" s="11">
+        <v>375</v>
+      </c>
+      <c r="C113" s="10">
         <v>21</v>
       </c>
       <c r="D113">
         <v>481</v>
       </c>
-      <c r="E113" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="14" t="s">
-        <v>120</v>
+      <c r="E113" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="K113" s="1"/>
       <c r="M113" s="2"/>
@@ -4534,20 +4588,20 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C114" s="11">
+        <v>376</v>
+      </c>
+      <c r="C114" s="10">
         <v>21</v>
       </c>
       <c r="D114">
         <v>482</v>
       </c>
-      <c r="E114" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" s="16"/>
-      <c r="H114" s="14" t="s">
-        <v>121</v>
+      <c r="E114" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G114" s="13"/>
+      <c r="H114" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="K114" s="1"/>
       <c r="M114" s="2"/>
@@ -4555,20 +4609,20 @@
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C115" s="11">
+        <v>377</v>
+      </c>
+      <c r="C115" s="10">
         <v>21</v>
       </c>
       <c r="D115">
         <v>483</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" s="16"/>
-      <c r="H115" s="14" t="s">
-        <v>122</v>
+      <c r="E115" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="K115" s="1"/>
       <c r="M115" s="2"/>
@@ -4576,20 +4630,20 @@
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C116" s="11">
+        <v>378</v>
+      </c>
+      <c r="C116" s="10">
         <v>21</v>
       </c>
       <c r="D116">
         <v>484</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G116" s="16"/>
-      <c r="H116" s="14" t="s">
-        <v>123</v>
+      <c r="E116" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="K116" s="1"/>
       <c r="M116" s="2"/>
@@ -4597,20 +4651,20 @@
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C117" s="11">
+        <v>379</v>
+      </c>
+      <c r="C117" s="10">
         <v>21</v>
       </c>
       <c r="D117">
         <v>485</v>
       </c>
-      <c r="E117" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" s="16"/>
-      <c r="H117" s="14" t="s">
-        <v>124</v>
+      <c r="E117" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="K117" s="1"/>
       <c r="M117" s="2"/>
@@ -4618,20 +4672,20 @@
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C118" s="11">
+        <v>380</v>
+      </c>
+      <c r="C118" s="10">
         <v>21</v>
       </c>
       <c r="D118">
         <v>486</v>
       </c>
-      <c r="E118" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" s="16"/>
-      <c r="H118" s="14" t="s">
-        <v>125</v>
+      <c r="E118" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="K118" s="1"/>
       <c r="M118" s="2"/>
@@ -4639,20 +4693,20 @@
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C119" s="11">
+        <v>381</v>
+      </c>
+      <c r="C119" s="10">
         <v>21</v>
       </c>
       <c r="D119">
         <v>487</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="14" t="s">
-        <v>126</v>
+      <c r="E119" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="K119" s="1"/>
       <c r="M119" s="2"/>
@@ -4660,20 +4714,20 @@
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C120" s="11">
+        <v>382</v>
+      </c>
+      <c r="C120" s="10">
         <v>21</v>
       </c>
       <c r="D120">
         <v>488</v>
       </c>
-      <c r="E120" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="14" t="s">
-        <v>127</v>
+      <c r="E120" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="K120" s="1"/>
       <c r="M120" s="2"/>
@@ -4681,20 +4735,20 @@
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C121" s="11">
+        <v>383</v>
+      </c>
+      <c r="C121" s="10">
         <v>21</v>
       </c>
       <c r="D121">
         <v>489</v>
       </c>
-      <c r="E121" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="14" t="s">
-        <v>128</v>
+      <c r="E121" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="K121" s="1"/>
       <c r="M121" s="2"/>
@@ -4702,20 +4756,20 @@
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C122" s="11">
+        <v>384</v>
+      </c>
+      <c r="C122" s="10">
         <v>21</v>
       </c>
       <c r="D122">
         <v>490</v>
       </c>
-      <c r="E122" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" s="16"/>
-      <c r="H122" s="14" t="s">
-        <v>129</v>
+      <c r="E122" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="H122" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="K122" s="1"/>
       <c r="M122" s="2"/>
@@ -4723,20 +4777,20 @@
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C123" s="11">
+        <v>385</v>
+      </c>
+      <c r="C123" s="10">
         <v>21</v>
       </c>
       <c r="D123">
         <v>491</v>
       </c>
-      <c r="E123" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="14" t="s">
-        <v>130</v>
+      <c r="E123" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="K123" s="1"/>
       <c r="M123" s="2"/>
@@ -4744,20 +4798,20 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C124" s="11">
+        <v>386</v>
+      </c>
+      <c r="C124" s="10">
         <v>21</v>
       </c>
       <c r="D124">
         <v>492</v>
       </c>
-      <c r="E124" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" s="16"/>
-      <c r="H124" s="14" t="s">
-        <v>131</v>
+      <c r="E124" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="K124" s="1"/>
       <c r="M124" s="2"/>
@@ -4765,20 +4819,20 @@
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C125" s="11">
+        <v>387</v>
+      </c>
+      <c r="C125" s="10">
         <v>21</v>
       </c>
       <c r="D125">
         <v>493</v>
       </c>
-      <c r="E125" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G125" s="16"/>
-      <c r="H125" s="14" t="s">
-        <v>132</v>
+      <c r="E125" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G125" s="13"/>
+      <c r="H125" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="K125" s="1"/>
       <c r="M125" s="2"/>
@@ -4786,41 +4840,44 @@
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C126" s="11">
+        <v>388</v>
+      </c>
+      <c r="C126" s="10">
         <v>21</v>
       </c>
       <c r="D126">
         <v>494</v>
       </c>
-      <c r="E126" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" s="16"/>
-      <c r="H126" s="14" t="s">
-        <v>133</v>
+      <c r="E126" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="K126" s="1"/>
+      <c r="L126" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="M126" s="2"/>
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C127" s="11">
+        <v>389</v>
+      </c>
+      <c r="C127" s="10">
         <v>21</v>
       </c>
       <c r="D127">
         <v>495</v>
       </c>
-      <c r="E127" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G127" s="16"/>
-      <c r="H127" s="14" t="s">
-        <v>134</v>
+      <c r="E127" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="K127" s="1"/>
       <c r="M127" s="2"/>
@@ -4828,20 +4885,20 @@
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C128" s="11">
+        <v>390</v>
+      </c>
+      <c r="C128" s="10">
         <v>21</v>
       </c>
       <c r="D128">
         <v>496</v>
       </c>
-      <c r="E128" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="14" t="s">
-        <v>135</v>
+      <c r="E128" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G128" s="13"/>
+      <c r="H128" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="K128" s="1"/>
       <c r="M128" s="2"/>
@@ -4849,20 +4906,20 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C129" s="11">
+        <v>391</v>
+      </c>
+      <c r="C129" s="10">
         <v>21</v>
       </c>
       <c r="D129">
         <v>497</v>
       </c>
-      <c r="E129" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="14" t="s">
-        <v>136</v>
+      <c r="E129" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="K129" s="1"/>
       <c r="M129" s="2"/>
@@ -4870,20 +4927,20 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C130" s="11">
+        <v>392</v>
+      </c>
+      <c r="C130" s="10">
         <v>21</v>
       </c>
       <c r="D130">
         <v>498</v>
       </c>
-      <c r="E130" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G130" s="16"/>
-      <c r="H130" s="14" t="s">
-        <v>137</v>
+      <c r="E130" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="K130" s="1"/>
       <c r="M130" s="2"/>
@@ -4891,62 +4948,60 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C131" s="11">
+        <v>393</v>
+      </c>
+      <c r="C131" s="10">
         <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G131" s="16"/>
-      <c r="H131" s="14"/>
+        <v>518</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G131" s="13"/>
       <c r="K131" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C132" s="11">
+        <v>394</v>
+      </c>
+      <c r="C132" s="10">
         <v>21</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="14"/>
+        <v>519</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G132" s="13"/>
       <c r="K132" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C133" s="11">
+        <v>395</v>
+      </c>
+      <c r="C133" s="10">
         <v>21</v>
       </c>
       <c r="D133">
         <v>499</v>
       </c>
-      <c r="E133" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="14" t="s">
-        <v>140</v>
+      <c r="E133" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G133" s="13"/>
+      <c r="H133" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="K133" s="1"/>
       <c r="M133" s="2"/>
@@ -4954,20 +5009,20 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C134" s="11">
+        <v>396</v>
+      </c>
+      <c r="C134" s="10">
         <v>21</v>
       </c>
       <c r="D134">
         <v>500</v>
       </c>
-      <c r="E134" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="14" t="s">
-        <v>141</v>
+      <c r="E134" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" s="13"/>
+      <c r="H134" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="K134" s="1"/>
       <c r="M134" s="2"/>
@@ -4975,20 +5030,20 @@
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C135" s="11">
+        <v>397</v>
+      </c>
+      <c r="C135" s="10">
         <v>21</v>
       </c>
       <c r="D135">
         <v>501</v>
       </c>
-      <c r="E135" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" s="16"/>
-      <c r="H135" s="14" t="s">
-        <v>142</v>
+      <c r="E135" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="K135" s="1"/>
       <c r="M135" s="2"/>
@@ -4996,20 +5051,20 @@
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C136" s="11">
+        <v>398</v>
+      </c>
+      <c r="C136" s="10">
         <v>21</v>
       </c>
       <c r="D136">
         <v>502</v>
       </c>
-      <c r="E136" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G136" s="16"/>
-      <c r="H136" s="14" t="s">
-        <v>143</v>
+      <c r="E136" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="K136" s="1"/>
       <c r="M136" s="2"/>
@@ -5017,20 +5072,20 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C137" s="11">
+        <v>399</v>
+      </c>
+      <c r="C137" s="10">
         <v>21</v>
       </c>
       <c r="D137">
         <v>503</v>
       </c>
-      <c r="E137" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G137" s="16"/>
-      <c r="H137" s="14" t="s">
-        <v>144</v>
+      <c r="E137" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G137" s="13"/>
+      <c r="H137" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="K137" s="1"/>
       <c r="M137" s="2"/>
@@ -5038,20 +5093,20 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C138" s="11">
+        <v>400</v>
+      </c>
+      <c r="C138" s="10">
         <v>21</v>
       </c>
       <c r="D138">
         <v>504</v>
       </c>
-      <c r="E138" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G138" s="16"/>
-      <c r="H138" s="14" t="s">
-        <v>145</v>
+      <c r="E138" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="K138" s="1"/>
       <c r="M138" s="2"/>
@@ -5059,20 +5114,20 @@
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C139" s="11">
+        <v>401</v>
+      </c>
+      <c r="C139" s="10">
         <v>21</v>
       </c>
       <c r="D139">
         <v>505</v>
       </c>
-      <c r="E139" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G139" s="16"/>
-      <c r="H139" s="14" t="s">
-        <v>146</v>
+      <c r="E139" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G139" s="13"/>
+      <c r="H139" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="K139" s="1"/>
       <c r="M139" s="2"/>
@@ -5080,20 +5135,20 @@
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C140" s="11">
+        <v>402</v>
+      </c>
+      <c r="C140" s="10">
         <v>21</v>
       </c>
       <c r="D140">
         <v>506</v>
       </c>
-      <c r="E140" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="14" t="s">
-        <v>147</v>
+      <c r="E140" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K140" s="1"/>
       <c r="M140" s="2"/>
@@ -5101,20 +5156,20 @@
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C141" s="11">
+        <v>403</v>
+      </c>
+      <c r="C141" s="10">
         <v>21</v>
       </c>
       <c r="D141">
         <v>507</v>
       </c>
-      <c r="E141" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G141" s="16"/>
-      <c r="H141" s="14" t="s">
-        <v>148</v>
+      <c r="E141" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="K141" s="1"/>
       <c r="M141" s="2"/>
@@ -5122,21 +5177,21 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C142" s="11">
+        <v>404</v>
+      </c>
+      <c r="C142" s="10">
         <v>21</v>
       </c>
       <c r="D142">
         <v>508</v>
       </c>
-      <c r="E142" s="14" t="s">
-        <v>149</v>
+      <c r="E142" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="F142" s="9"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="14" t="s">
-        <v>149</v>
+      <c r="G142" s="13"/>
+      <c r="H142" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="K142" s="1"/>
       <c r="M142" s="2"/>
@@ -5144,21 +5199,21 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C143" s="11">
+        <v>405</v>
+      </c>
+      <c r="C143" s="10">
         <v>21</v>
       </c>
       <c r="D143">
         <v>509</v>
       </c>
-      <c r="E143" s="14" t="s">
-        <v>150</v>
+      <c r="E143" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="F143" s="9"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="14" t="s">
-        <v>150</v>
+      <c r="G143" s="13"/>
+      <c r="H143" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K143" s="1"/>
       <c r="M143" s="2"/>
@@ -5166,21 +5221,21 @@
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C144" s="11">
+        <v>406</v>
+      </c>
+      <c r="C144" s="10">
         <v>21</v>
       </c>
       <c r="D144">
         <v>510</v>
       </c>
-      <c r="E144" s="14" t="s">
-        <v>151</v>
+      <c r="E144" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="F144" s="9"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="14" t="s">
-        <v>151</v>
+      <c r="G144" s="13"/>
+      <c r="H144" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K144" s="1"/>
       <c r="M144" s="2"/>
@@ -5188,21 +5243,21 @@
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C145" s="11">
+        <v>407</v>
+      </c>
+      <c r="C145" s="10">
         <v>21</v>
       </c>
       <c r="D145">
         <v>511</v>
       </c>
-      <c r="E145" s="14" t="s">
-        <v>152</v>
+      <c r="E145" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="F145" s="9"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="14" t="s">
-        <v>152</v>
+      <c r="G145" s="13"/>
+      <c r="H145" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K145" s="1"/>
       <c r="M145" s="2"/>
@@ -5210,20 +5265,20 @@
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C146" s="11">
+        <v>408</v>
+      </c>
+      <c r="C146" s="10">
         <v>21</v>
       </c>
       <c r="D146">
         <v>512</v>
       </c>
-      <c r="E146" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G146" s="16"/>
-      <c r="H146" s="14" t="s">
-        <v>153</v>
+      <c r="E146" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G146" s="13"/>
+      <c r="H146" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="K146" s="1"/>
       <c r="M146" s="2"/>
@@ -5231,20 +5286,20 @@
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C147" s="11">
+        <v>409</v>
+      </c>
+      <c r="C147" s="10">
         <v>21</v>
       </c>
       <c r="D147">
         <v>513</v>
       </c>
-      <c r="E147" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G147" s="16"/>
-      <c r="H147" s="14" t="s">
-        <v>154</v>
+      <c r="E147" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G147" s="13"/>
+      <c r="H147" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="K147" s="1"/>
       <c r="M147" s="2"/>
@@ -5252,20 +5307,20 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C148" s="11">
+        <v>410</v>
+      </c>
+      <c r="C148" s="10">
         <v>21</v>
       </c>
       <c r="D148">
         <v>514</v>
       </c>
-      <c r="E148" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G148" s="16"/>
-      <c r="H148" s="14" t="s">
-        <v>155</v>
+      <c r="E148" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G148" s="13"/>
+      <c r="H148" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="K148" s="1"/>
       <c r="M148" s="2"/>
@@ -5273,20 +5328,20 @@
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C149" s="11">
+        <v>411</v>
+      </c>
+      <c r="C149" s="10">
         <v>21</v>
       </c>
       <c r="D149">
         <v>515</v>
       </c>
-      <c r="E149" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G149" s="16"/>
-      <c r="H149" s="14" t="s">
-        <v>156</v>
+      <c r="E149" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G149" s="13"/>
+      <c r="H149" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="K149" s="1"/>
       <c r="M149" s="2"/>
@@ -5294,20 +5349,20 @@
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C150" s="11">
+        <v>412</v>
+      </c>
+      <c r="C150" s="10">
         <v>21</v>
       </c>
       <c r="D150">
         <v>516</v>
       </c>
-      <c r="E150" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G150" s="16"/>
-      <c r="H150" s="14" t="s">
-        <v>157</v>
+      <c r="E150" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G150" s="13"/>
+      <c r="H150" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="K150" s="1"/>
       <c r="M150" s="2"/>
@@ -5315,20 +5370,20 @@
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C151" s="11">
+        <v>413</v>
+      </c>
+      <c r="C151" s="10">
         <v>21</v>
       </c>
       <c r="D151">
         <v>517</v>
       </c>
-      <c r="E151" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G151" s="16"/>
-      <c r="H151" s="14" t="s">
-        <v>158</v>
+      <c r="E151" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="K151" s="1"/>
       <c r="M151" s="2"/>
@@ -5336,20 +5391,20 @@
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C152" s="11">
+        <v>414</v>
+      </c>
+      <c r="C152" s="10">
         <v>21</v>
       </c>
       <c r="D152">
         <v>518</v>
       </c>
-      <c r="E152" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" s="16"/>
-      <c r="H152" s="14" t="s">
-        <v>159</v>
+      <c r="E152" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="K152" s="1"/>
       <c r="M152" s="2"/>
@@ -5357,20 +5412,20 @@
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C153" s="11">
+        <v>415</v>
+      </c>
+      <c r="C153" s="10">
         <v>21</v>
       </c>
       <c r="D153">
         <v>519</v>
       </c>
-      <c r="E153" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G153" s="16"/>
-      <c r="H153" s="14" t="s">
-        <v>160</v>
+      <c r="E153" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G153" s="13"/>
+      <c r="H153" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="K153" s="1"/>
       <c r="M153" s="2"/>
@@ -5378,20 +5433,20 @@
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C154" s="11">
+        <v>416</v>
+      </c>
+      <c r="C154" s="10">
         <v>21</v>
       </c>
       <c r="D154">
         <v>520</v>
       </c>
-      <c r="E154" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G154" s="16"/>
-      <c r="H154" s="14" t="s">
-        <v>161</v>
+      <c r="E154" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G154" s="13"/>
+      <c r="H154" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="K154" s="1"/>
       <c r="M154" s="2"/>
@@ -5399,62 +5454,60 @@
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C155" s="11">
+        <v>417</v>
+      </c>
+      <c r="C155" s="10">
         <v>21</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G155" s="16"/>
-      <c r="H155" s="14"/>
+        <v>519</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G155" s="13"/>
       <c r="K155" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C156" s="11">
+        <v>418</v>
+      </c>
+      <c r="C156" s="10">
         <v>21</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E156" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G156" s="16"/>
-      <c r="H156" s="14"/>
+        <v>518</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G156" s="13"/>
       <c r="K156" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C157" s="11">
+        <v>419</v>
+      </c>
+      <c r="C157" s="10">
         <v>21</v>
       </c>
       <c r="D157">
         <v>521</v>
       </c>
-      <c r="E157" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G157" s="16"/>
-      <c r="H157" s="14" t="s">
-        <v>164</v>
+      <c r="E157" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G157" s="13"/>
+      <c r="H157" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="K157" s="1"/>
       <c r="M157" s="2"/>
@@ -5462,20 +5515,20 @@
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C158" s="11">
+        <v>420</v>
+      </c>
+      <c r="C158" s="10">
         <v>21</v>
       </c>
       <c r="D158">
         <v>522</v>
       </c>
-      <c r="E158" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G158" s="16"/>
-      <c r="H158" s="14" t="s">
-        <v>165</v>
+      <c r="E158" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G158" s="13"/>
+      <c r="H158" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="K158" s="1"/>
       <c r="M158" s="2"/>
@@ -5483,20 +5536,20 @@
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C159" s="11">
+        <v>421</v>
+      </c>
+      <c r="C159" s="10">
         <v>21</v>
       </c>
       <c r="D159">
         <v>523</v>
       </c>
-      <c r="E159" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G159" s="16"/>
-      <c r="H159" s="14" t="s">
-        <v>166</v>
+      <c r="E159" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G159" s="13"/>
+      <c r="H159" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="K159" s="1"/>
       <c r="M159" s="2"/>
@@ -5504,20 +5557,20 @@
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C160" s="11">
+        <v>422</v>
+      </c>
+      <c r="C160" s="10">
         <v>21</v>
       </c>
       <c r="D160">
         <v>524</v>
       </c>
-      <c r="E160" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G160" s="16"/>
-      <c r="H160" s="14" t="s">
-        <v>167</v>
+      <c r="E160" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G160" s="13"/>
+      <c r="H160" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="K160" s="1"/>
       <c r="M160" s="2"/>
@@ -5525,20 +5578,20 @@
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C161" s="11">
+        <v>423</v>
+      </c>
+      <c r="C161" s="10">
         <v>21</v>
       </c>
       <c r="D161">
         <v>525</v>
       </c>
-      <c r="E161" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G161" s="16"/>
-      <c r="H161" s="14" t="s">
-        <v>168</v>
+      <c r="E161" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G161" s="13"/>
+      <c r="H161" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="K161" s="1"/>
       <c r="M161" s="2"/>
@@ -5546,41 +5599,44 @@
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C162" s="11">
+        <v>424</v>
+      </c>
+      <c r="C162" s="10">
         <v>21</v>
       </c>
       <c r="D162">
         <v>526</v>
       </c>
-      <c r="E162" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G162" s="16"/>
-      <c r="H162" s="14" t="s">
-        <v>169</v>
+      <c r="E162" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G162" s="13"/>
+      <c r="H162" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="K162" s="1"/>
+      <c r="L162" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="M162" s="2"/>
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C163" s="11">
+        <v>425</v>
+      </c>
+      <c r="C163" s="10">
         <v>21</v>
       </c>
       <c r="D163">
         <v>527</v>
       </c>
-      <c r="E163" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" s="16"/>
-      <c r="H163" s="14" t="s">
-        <v>170</v>
+      <c r="E163" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G163" s="13"/>
+      <c r="H163" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="K163" s="1"/>
       <c r="M163" s="2"/>
@@ -5588,43 +5644,43 @@
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C164" s="11">
+        <v>426</v>
+      </c>
+      <c r="C164" s="10">
         <v>21</v>
       </c>
       <c r="D164">
         <v>528</v>
       </c>
-      <c r="E164" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G164" s="16"/>
-      <c r="H164" s="14" t="s">
-        <v>171</v>
+      <c r="E164" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C165" s="11">
+        <v>427</v>
+      </c>
+      <c r="C165" s="10">
         <v>21</v>
       </c>
       <c r="D165">
         <v>529</v>
       </c>
-      <c r="E165" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G165" s="16"/>
-      <c r="H165" s="14" t="s">
-        <v>172</v>
+      <c r="E165" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="K165" s="1"/>
       <c r="M165" s="2"/>
@@ -5632,20 +5688,20 @@
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C166" s="11">
+        <v>428</v>
+      </c>
+      <c r="C166" s="10">
         <v>21</v>
       </c>
       <c r="D166">
         <v>530</v>
       </c>
-      <c r="E166" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G166" s="16"/>
-      <c r="H166" s="14" t="s">
-        <v>173</v>
+      <c r="E166" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="K166" s="1"/>
       <c r="M166" s="2"/>
@@ -5653,41 +5709,44 @@
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C167" s="11">
+        <v>429</v>
+      </c>
+      <c r="C167" s="10">
         <v>21</v>
       </c>
       <c r="D167">
         <v>531</v>
       </c>
-      <c r="E167" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G167" s="16"/>
-      <c r="H167" s="14" t="s">
-        <v>174</v>
+      <c r="E167" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" s="13"/>
+      <c r="H167" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="K167" s="1"/>
+      <c r="L167" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="M167" s="2"/>
       <c r="N167" s="1"/>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C168" s="11">
+        <v>430</v>
+      </c>
+      <c r="C168" s="10">
         <v>21</v>
       </c>
       <c r="D168">
         <v>532</v>
       </c>
-      <c r="E168" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G168" s="16"/>
-      <c r="H168" s="14" t="s">
-        <v>175</v>
+      <c r="E168" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G168" s="13"/>
+      <c r="H168" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="K168" s="1"/>
       <c r="M168" s="2"/>
@@ -5695,20 +5754,20 @@
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C169" s="11">
+        <v>431</v>
+      </c>
+      <c r="C169" s="10">
         <v>21</v>
       </c>
       <c r="D169">
         <v>533</v>
       </c>
-      <c r="E169" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G169" s="16"/>
-      <c r="H169" s="14" t="s">
-        <v>176</v>
+      <c r="E169" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G169" s="13"/>
+      <c r="H169" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="K169" s="1"/>
       <c r="M169" s="2"/>
@@ -5716,20 +5775,20 @@
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C170" s="11">
+        <v>432</v>
+      </c>
+      <c r="C170" s="10">
         <v>21</v>
       </c>
       <c r="D170">
         <v>534</v>
       </c>
-      <c r="E170" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G170" s="16"/>
-      <c r="H170" s="14" t="s">
-        <v>177</v>
+      <c r="E170" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G170" s="13"/>
+      <c r="H170" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="K170" s="1"/>
       <c r="M170" s="2"/>
@@ -5737,20 +5796,20 @@
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C171" s="11">
+        <v>433</v>
+      </c>
+      <c r="C171" s="10">
         <v>21</v>
       </c>
       <c r="D171">
         <v>535</v>
       </c>
-      <c r="E171" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G171" s="16"/>
-      <c r="H171" s="14" t="s">
-        <v>178</v>
+      <c r="E171" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G171" s="13"/>
+      <c r="H171" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="K171" s="1"/>
       <c r="M171" s="2"/>
@@ -5758,20 +5817,20 @@
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C172" s="11">
+        <v>434</v>
+      </c>
+      <c r="C172" s="10">
         <v>21</v>
       </c>
       <c r="D172">
         <v>536</v>
       </c>
-      <c r="E172" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G172" s="16"/>
-      <c r="H172" s="14" t="s">
-        <v>179</v>
+      <c r="E172" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G172" s="13"/>
+      <c r="H172" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="K172" s="1"/>
       <c r="M172" s="2"/>
@@ -5779,20 +5838,20 @@
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C173" s="11">
+        <v>435</v>
+      </c>
+      <c r="C173" s="10">
         <v>21</v>
       </c>
       <c r="D173">
         <v>537</v>
       </c>
-      <c r="E173" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G173" s="16"/>
-      <c r="H173" s="14" t="s">
-        <v>180</v>
+      <c r="E173" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="K173" s="1"/>
       <c r="M173" s="2"/>
@@ -5800,20 +5859,20 @@
     </row>
     <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C174" s="11">
+        <v>436</v>
+      </c>
+      <c r="C174" s="10">
         <v>21</v>
       </c>
       <c r="D174">
         <v>538</v>
       </c>
-      <c r="E174" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G174" s="16"/>
-      <c r="H174" s="14" t="s">
-        <v>181</v>
+      <c r="E174" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G174" s="13"/>
+      <c r="H174" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="K174" s="1"/>
       <c r="M174" s="2"/>
@@ -5821,20 +5880,20 @@
     </row>
     <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C175" s="11">
+        <v>437</v>
+      </c>
+      <c r="C175" s="10">
         <v>21</v>
       </c>
       <c r="D175">
         <v>539</v>
       </c>
-      <c r="E175" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G175" s="16"/>
-      <c r="H175" s="14" t="s">
-        <v>182</v>
+      <c r="E175" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="K175" s="1"/>
       <c r="M175" s="2"/>
@@ -5842,20 +5901,20 @@
     </row>
     <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C176" s="11">
+        <v>438</v>
+      </c>
+      <c r="C176" s="10">
         <v>21</v>
       </c>
       <c r="D176">
         <v>540</v>
       </c>
-      <c r="E176" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G176" s="16"/>
-      <c r="H176" s="14" t="s">
-        <v>183</v>
+      <c r="E176" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G176" s="13"/>
+      <c r="H176" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="K176" s="1"/>
       <c r="M176" s="2"/>
@@ -5863,20 +5922,20 @@
     </row>
     <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C177" s="11">
+        <v>439</v>
+      </c>
+      <c r="C177" s="10">
         <v>21</v>
       </c>
       <c r="D177">
         <v>541</v>
       </c>
-      <c r="E177" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="14" t="s">
-        <v>184</v>
+      <c r="E177" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G177" s="13"/>
+      <c r="H177" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="K177" s="1"/>
       <c r="M177" s="2"/>
@@ -5884,43 +5943,43 @@
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C178" s="11">
+        <v>440</v>
+      </c>
+      <c r="C178" s="10">
         <v>21</v>
       </c>
       <c r="D178">
         <v>542</v>
       </c>
-      <c r="E178" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="14" t="s">
-        <v>185</v>
+      <c r="E178" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G178" s="13"/>
+      <c r="H178" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C179" s="11">
+        <v>441</v>
+      </c>
+      <c r="C179" s="10">
         <v>21</v>
       </c>
       <c r="D179">
         <v>543</v>
       </c>
-      <c r="E179" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G179" s="16"/>
-      <c r="H179" s="14" t="s">
-        <v>186</v>
+      <c r="E179" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G179" s="13"/>
+      <c r="H179" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="K179" s="1"/>
       <c r="M179" s="2"/>
@@ -5928,20 +5987,20 @@
     </row>
     <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C180" s="11">
+        <v>442</v>
+      </c>
+      <c r="C180" s="10">
         <v>21</v>
       </c>
       <c r="D180">
         <v>544</v>
       </c>
-      <c r="E180" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G180" s="16"/>
-      <c r="H180" s="14" t="s">
-        <v>187</v>
+      <c r="E180" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G180" s="13"/>
+      <c r="H180" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="K180" s="1"/>
       <c r="M180" s="2"/>
@@ -5949,20 +6008,20 @@
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C181" s="11">
+        <v>443</v>
+      </c>
+      <c r="C181" s="10">
         <v>21</v>
       </c>
       <c r="D181">
         <v>545</v>
       </c>
-      <c r="E181" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G181" s="16"/>
-      <c r="H181" s="14" t="s">
-        <v>188</v>
+      <c r="E181" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G181" s="13"/>
+      <c r="H181" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="K181" s="1"/>
       <c r="M181" s="2"/>
@@ -5970,20 +6029,20 @@
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C182" s="11">
+        <v>444</v>
+      </c>
+      <c r="C182" s="10">
         <v>21</v>
       </c>
       <c r="D182">
         <v>546</v>
       </c>
-      <c r="E182" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G182" s="16"/>
-      <c r="H182" s="14" t="s">
-        <v>189</v>
+      <c r="E182" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G182" s="13"/>
+      <c r="H182" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="K182" s="1"/>
       <c r="M182" s="2"/>
@@ -5991,20 +6050,20 @@
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C183" s="11">
+        <v>445</v>
+      </c>
+      <c r="C183" s="10">
         <v>21</v>
       </c>
       <c r="D183">
         <v>547</v>
       </c>
-      <c r="E183" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G183" s="16"/>
-      <c r="H183" s="14" t="s">
-        <v>190</v>
+      <c r="E183" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G183" s="13"/>
+      <c r="H183" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="K183" s="1"/>
       <c r="M183" s="2"/>
@@ -6012,20 +6071,20 @@
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C184" s="11">
+        <v>446</v>
+      </c>
+      <c r="C184" s="10">
         <v>21</v>
       </c>
       <c r="D184">
         <v>548</v>
       </c>
-      <c r="E184" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G184" s="16"/>
-      <c r="H184" s="14" t="s">
-        <v>191</v>
+      <c r="E184" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G184" s="13"/>
+      <c r="H184" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="K184" s="1"/>
       <c r="M184" s="2"/>
@@ -6033,20 +6092,20 @@
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C185" s="11">
+        <v>447</v>
+      </c>
+      <c r="C185" s="10">
         <v>21</v>
       </c>
       <c r="D185">
         <v>549</v>
       </c>
-      <c r="E185" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G185" s="16"/>
-      <c r="H185" s="14" t="s">
-        <v>192</v>
+      <c r="E185" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G185" s="13"/>
+      <c r="H185" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="K185" s="1"/>
       <c r="M185" s="2"/>
@@ -6054,20 +6113,20 @@
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C186" s="11">
+        <v>448</v>
+      </c>
+      <c r="C186" s="10">
         <v>21</v>
       </c>
       <c r="D186">
         <v>550</v>
       </c>
-      <c r="E186" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G186" s="16"/>
-      <c r="H186" s="14" t="s">
-        <v>193</v>
+      <c r="E186" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G186" s="13"/>
+      <c r="H186" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="K186" s="1"/>
       <c r="M186" s="2"/>
@@ -6075,20 +6134,20 @@
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C187" s="11">
+        <v>449</v>
+      </c>
+      <c r="C187" s="10">
         <v>21</v>
       </c>
       <c r="D187">
         <v>551</v>
       </c>
-      <c r="E187" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G187" s="16"/>
-      <c r="H187" s="14" t="s">
-        <v>194</v>
+      <c r="E187" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="K187" s="1"/>
       <c r="M187" s="2"/>
@@ -6096,20 +6155,20 @@
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C188" s="11">
+        <v>450</v>
+      </c>
+      <c r="C188" s="10">
         <v>21</v>
       </c>
       <c r="D188">
         <v>552</v>
       </c>
-      <c r="E188" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G188" s="16"/>
-      <c r="H188" s="14" t="s">
-        <v>195</v>
+      <c r="E188" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G188" s="13"/>
+      <c r="H188" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="K188" s="1"/>
       <c r="M188" s="2"/>
@@ -6117,20 +6176,20 @@
     </row>
     <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C189" s="11">
+        <v>451</v>
+      </c>
+      <c r="C189" s="10">
         <v>21</v>
       </c>
       <c r="D189">
         <v>553</v>
       </c>
-      <c r="E189" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G189" s="16"/>
-      <c r="H189" s="14" t="s">
-        <v>196</v>
+      <c r="E189" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G189" s="13"/>
+      <c r="H189" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="K189" s="1"/>
       <c r="M189" s="2"/>
@@ -6138,20 +6197,20 @@
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C190" s="11">
+        <v>452</v>
+      </c>
+      <c r="C190" s="10">
         <v>21</v>
       </c>
       <c r="D190">
         <v>554</v>
       </c>
-      <c r="E190" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G190" s="16"/>
-      <c r="H190" s="14" t="s">
-        <v>197</v>
+      <c r="E190" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G190" s="13"/>
+      <c r="H190" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="K190" s="1"/>
       <c r="M190" s="2"/>
@@ -6159,20 +6218,20 @@
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C191" s="11">
+        <v>453</v>
+      </c>
+      <c r="C191" s="10">
         <v>21</v>
       </c>
       <c r="D191">
         <v>555</v>
       </c>
-      <c r="E191" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G191" s="16"/>
-      <c r="H191" s="14" t="s">
-        <v>198</v>
+      <c r="E191" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G191" s="13"/>
+      <c r="H191" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="K191" s="1"/>
       <c r="M191" s="2"/>
@@ -6180,43 +6239,43 @@
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C192" s="11">
+        <v>454</v>
+      </c>
+      <c r="C192" s="10">
         <v>21</v>
       </c>
       <c r="D192">
         <v>556</v>
       </c>
-      <c r="E192" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G192" s="16"/>
-      <c r="H192" s="14" t="s">
-        <v>199</v>
+      <c r="E192" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G192" s="13"/>
+      <c r="H192" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="1"/>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C193" s="11">
+        <v>455</v>
+      </c>
+      <c r="C193" s="10">
         <v>21</v>
       </c>
       <c r="D193">
         <v>557</v>
       </c>
-      <c r="E193" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G193" s="16"/>
-      <c r="H193" s="14" t="s">
-        <v>200</v>
+      <c r="E193" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G193" s="13"/>
+      <c r="H193" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="K193" s="1"/>
       <c r="M193" s="2"/>
@@ -6224,20 +6283,20 @@
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C194" s="11">
+        <v>456</v>
+      </c>
+      <c r="C194" s="10">
         <v>21</v>
       </c>
       <c r="D194">
         <v>558</v>
       </c>
-      <c r="E194" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G194" s="16"/>
-      <c r="H194" s="14" t="s">
-        <v>201</v>
+      <c r="E194" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G194" s="13"/>
+      <c r="H194" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="K194" s="1"/>
       <c r="M194" s="2"/>
@@ -6245,20 +6304,20 @@
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C195" s="11">
+        <v>457</v>
+      </c>
+      <c r="C195" s="10">
         <v>21</v>
       </c>
       <c r="D195">
         <v>559</v>
       </c>
-      <c r="E195" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G195" s="16"/>
-      <c r="H195" s="14" t="s">
-        <v>202</v>
+      <c r="E195" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G195" s="13"/>
+      <c r="H195" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="K195" s="1"/>
       <c r="M195" s="2"/>
@@ -6266,20 +6325,20 @@
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C196" s="11">
+        <v>458</v>
+      </c>
+      <c r="C196" s="10">
         <v>21</v>
       </c>
       <c r="D196">
         <v>560</v>
       </c>
-      <c r="E196" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G196" s="16"/>
-      <c r="H196" s="14" t="s">
-        <v>203</v>
+      <c r="E196" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G196" s="13"/>
+      <c r="H196" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="K196" s="1"/>
       <c r="M196" s="2"/>
@@ -6287,20 +6346,20 @@
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C197" s="11">
+        <v>459</v>
+      </c>
+      <c r="C197" s="10">
         <v>21</v>
       </c>
       <c r="D197">
         <v>561</v>
       </c>
-      <c r="E197" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G197" s="16"/>
-      <c r="H197" s="14" t="s">
-        <v>204</v>
+      <c r="E197" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G197" s="13"/>
+      <c r="H197" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="K197" s="1"/>
       <c r="M197" s="2"/>
@@ -6308,20 +6367,20 @@
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C198" s="11">
+        <v>460</v>
+      </c>
+      <c r="C198" s="10">
         <v>21</v>
       </c>
       <c r="D198">
         <v>562</v>
       </c>
-      <c r="E198" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G198" s="16"/>
-      <c r="H198" s="14" t="s">
-        <v>205</v>
+      <c r="E198" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G198" s="13"/>
+      <c r="H198" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="K198" s="1"/>
       <c r="M198" s="2"/>
@@ -6329,20 +6388,20 @@
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C199" s="11">
+        <v>461</v>
+      </c>
+      <c r="C199" s="10">
         <v>21</v>
       </c>
       <c r="D199">
         <v>563</v>
       </c>
-      <c r="E199" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G199" s="16"/>
-      <c r="H199" s="14" t="s">
-        <v>206</v>
+      <c r="E199" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G199" s="13"/>
+      <c r="H199" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="K199" s="1"/>
       <c r="M199" s="2"/>
@@ -6350,20 +6409,20 @@
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C200" s="11">
+        <v>462</v>
+      </c>
+      <c r="C200" s="10">
         <v>21</v>
       </c>
       <c r="D200">
         <v>564</v>
       </c>
-      <c r="E200" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G200" s="16"/>
-      <c r="H200" s="14" t="s">
-        <v>207</v>
+      <c r="E200" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G200" s="13"/>
+      <c r="H200" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="K200" s="1"/>
       <c r="M200" s="2"/>
@@ -6371,20 +6430,20 @@
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C201" s="11">
+        <v>463</v>
+      </c>
+      <c r="C201" s="10">
         <v>21</v>
       </c>
       <c r="D201">
         <v>565</v>
       </c>
-      <c r="E201" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G201" s="16"/>
-      <c r="H201" s="14" t="s">
-        <v>208</v>
+      <c r="E201" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G201" s="13"/>
+      <c r="H201" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="K201" s="1"/>
       <c r="M201" s="2"/>
@@ -6392,20 +6451,20 @@
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C202" s="11">
+        <v>464</v>
+      </c>
+      <c r="C202" s="10">
         <v>21</v>
       </c>
       <c r="D202">
         <v>566</v>
       </c>
-      <c r="E202" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G202" s="16"/>
-      <c r="H202" s="14" t="s">
-        <v>209</v>
+      <c r="E202" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G202" s="13"/>
+      <c r="H202" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="K202" s="1"/>
       <c r="M202" s="2"/>
@@ -6413,20 +6472,20 @@
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C203" s="11">
+        <v>465</v>
+      </c>
+      <c r="C203" s="10">
         <v>21</v>
       </c>
       <c r="D203">
         <v>567</v>
       </c>
-      <c r="E203" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G203" s="16"/>
-      <c r="H203" s="14" t="s">
-        <v>210</v>
+      <c r="E203" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G203" s="13"/>
+      <c r="H203" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="K203" s="1"/>
       <c r="M203" s="2"/>
@@ -6434,20 +6493,20 @@
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C204" s="11">
+        <v>466</v>
+      </c>
+      <c r="C204" s="10">
         <v>21</v>
       </c>
       <c r="D204">
         <v>568</v>
       </c>
-      <c r="E204" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G204" s="16"/>
-      <c r="H204" s="14" t="s">
-        <v>211</v>
+      <c r="E204" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" s="13"/>
+      <c r="H204" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="K204" s="1"/>
       <c r="M204" s="2"/>
@@ -6455,20 +6514,20 @@
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C205" s="11">
+        <v>467</v>
+      </c>
+      <c r="C205" s="10">
         <v>21</v>
       </c>
       <c r="D205">
         <v>569</v>
       </c>
-      <c r="E205" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G205" s="16"/>
-      <c r="H205" s="14" t="s">
-        <v>212</v>
+      <c r="E205" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G205" s="13"/>
+      <c r="H205" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="K205" s="1"/>
       <c r="M205" s="2"/>
@@ -6476,20 +6535,20 @@
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C206" s="11">
+        <v>468</v>
+      </c>
+      <c r="C206" s="10">
         <v>21</v>
       </c>
       <c r="D206">
         <v>570</v>
       </c>
-      <c r="E206" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G206" s="16"/>
-      <c r="H206" s="14" t="s">
-        <v>213</v>
+      <c r="E206" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G206" s="13"/>
+      <c r="H206" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="K206" s="1"/>
       <c r="M206" s="2"/>
@@ -6497,20 +6556,20 @@
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C207" s="11">
+        <v>469</v>
+      </c>
+      <c r="C207" s="10">
         <v>21</v>
       </c>
       <c r="D207">
         <v>571</v>
       </c>
-      <c r="E207" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G207" s="16"/>
-      <c r="H207" s="14" t="s">
-        <v>214</v>
+      <c r="E207" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G207" s="13"/>
+      <c r="H207" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="K207" s="1"/>
       <c r="M207" s="2"/>
@@ -6518,20 +6577,20 @@
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C208" s="11">
+        <v>470</v>
+      </c>
+      <c r="C208" s="10">
         <v>21</v>
       </c>
       <c r="D208">
         <v>572</v>
       </c>
-      <c r="E208" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G208" s="16"/>
-      <c r="H208" s="14" t="s">
-        <v>215</v>
+      <c r="E208" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G208" s="13"/>
+      <c r="H208" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="K208" s="1"/>
       <c r="M208" s="2"/>
@@ -6539,20 +6598,20 @@
     </row>
     <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C209" s="11">
+        <v>471</v>
+      </c>
+      <c r="C209" s="10">
         <v>21</v>
       </c>
       <c r="D209">
         <v>573</v>
       </c>
-      <c r="E209" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G209" s="16"/>
-      <c r="H209" s="14" t="s">
-        <v>216</v>
+      <c r="E209" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G209" s="13"/>
+      <c r="H209" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="K209" s="1"/>
       <c r="M209" s="2"/>
@@ -6560,20 +6619,20 @@
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C210" s="11">
+        <v>472</v>
+      </c>
+      <c r="C210" s="10">
         <v>21</v>
       </c>
       <c r="D210">
         <v>574</v>
       </c>
-      <c r="E210" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G210" s="16"/>
-      <c r="H210" s="14" t="s">
-        <v>217</v>
+      <c r="E210" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G210" s="13"/>
+      <c r="H210" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="K210" s="1"/>
       <c r="M210" s="2"/>
@@ -6581,43 +6640,43 @@
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C211" s="11">
+        <v>473</v>
+      </c>
+      <c r="C211" s="10">
         <v>21</v>
       </c>
       <c r="D211">
         <v>575</v>
       </c>
-      <c r="E211" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G211" s="16"/>
-      <c r="H211" s="14" t="s">
-        <v>218</v>
+      <c r="E211" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G211" s="13"/>
+      <c r="H211" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" s="1"/>
     </row>
     <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C212" s="11">
+        <v>474</v>
+      </c>
+      <c r="C212" s="10">
         <v>21</v>
       </c>
       <c r="D212">
         <v>576</v>
       </c>
-      <c r="E212" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G212" s="16"/>
-      <c r="H212" s="14" t="s">
-        <v>219</v>
+      <c r="E212" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G212" s="13"/>
+      <c r="H212" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="K212" s="1"/>
       <c r="M212" s="2"/>
@@ -6625,20 +6684,20 @@
     </row>
     <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C213" s="11">
+        <v>475</v>
+      </c>
+      <c r="C213" s="10">
         <v>21</v>
       </c>
       <c r="D213">
         <v>577</v>
       </c>
-      <c r="E213" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G213" s="16"/>
-      <c r="H213" s="14" t="s">
-        <v>220</v>
+      <c r="E213" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G213" s="13"/>
+      <c r="H213" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="K213" s="1"/>
       <c r="M213" s="2"/>
@@ -6646,20 +6705,20 @@
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C214" s="11">
+        <v>476</v>
+      </c>
+      <c r="C214" s="10">
         <v>21</v>
       </c>
       <c r="D214">
         <v>578</v>
       </c>
-      <c r="E214" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G214" s="16"/>
-      <c r="H214" s="14" t="s">
-        <v>221</v>
+      <c r="E214" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G214" s="13"/>
+      <c r="H214" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="K214" s="1"/>
       <c r="M214" s="2"/>
@@ -6667,20 +6726,20 @@
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C215" s="11">
+        <v>477</v>
+      </c>
+      <c r="C215" s="10">
         <v>21</v>
       </c>
       <c r="D215">
         <v>579</v>
       </c>
-      <c r="E215" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G215" s="16"/>
-      <c r="H215" s="14" t="s">
-        <v>222</v>
+      <c r="E215" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G215" s="13"/>
+      <c r="H215" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="K215" s="1"/>
       <c r="M215" s="2"/>
@@ -6688,20 +6747,20 @@
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C216" s="11">
+        <v>478</v>
+      </c>
+      <c r="C216" s="10">
         <v>21</v>
       </c>
       <c r="D216">
         <v>580</v>
       </c>
-      <c r="E216" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G216" s="16"/>
-      <c r="H216" s="14" t="s">
-        <v>223</v>
+      <c r="E216" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G216" s="13"/>
+      <c r="H216" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="K216" s="1"/>
       <c r="M216" s="2"/>
@@ -6709,20 +6768,20 @@
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C217" s="11">
+        <v>479</v>
+      </c>
+      <c r="C217" s="10">
         <v>21</v>
       </c>
       <c r="D217">
         <v>581</v>
       </c>
-      <c r="E217" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="G217" s="16"/>
-      <c r="H217" s="14" t="s">
-        <v>224</v>
+      <c r="E217" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G217" s="13"/>
+      <c r="H217" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="K217" s="1"/>
       <c r="M217" s="2"/>
@@ -6730,20 +6789,20 @@
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C218" s="11">
+        <v>480</v>
+      </c>
+      <c r="C218" s="10">
         <v>21</v>
       </c>
       <c r="D218">
         <v>582</v>
       </c>
-      <c r="E218" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G218" s="16"/>
-      <c r="H218" s="14" t="s">
-        <v>225</v>
+      <c r="E218" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G218" s="13"/>
+      <c r="H218" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="K218" s="1"/>
       <c r="M218" s="2"/>
@@ -6751,20 +6810,20 @@
     </row>
     <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C219" s="11">
+        <v>481</v>
+      </c>
+      <c r="C219" s="10">
         <v>21</v>
       </c>
       <c r="D219">
         <v>583</v>
       </c>
-      <c r="E219" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G219" s="16"/>
-      <c r="H219" s="14" t="s">
-        <v>226</v>
+      <c r="E219" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G219" s="13"/>
+      <c r="H219" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="K219" s="1"/>
       <c r="M219" s="2"/>
@@ -6772,20 +6831,20 @@
     </row>
     <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C220" s="11">
+        <v>482</v>
+      </c>
+      <c r="C220" s="10">
         <v>21</v>
       </c>
       <c r="D220">
         <v>584</v>
       </c>
-      <c r="E220" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G220" s="16"/>
-      <c r="H220" s="14" t="s">
-        <v>227</v>
+      <c r="E220" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G220" s="13"/>
+      <c r="H220" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="K220" s="1"/>
       <c r="M220" s="2"/>
@@ -6793,20 +6852,20 @@
     </row>
     <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C221" s="11">
+        <v>483</v>
+      </c>
+      <c r="C221" s="10">
         <v>21</v>
       </c>
       <c r="D221">
         <v>585</v>
       </c>
-      <c r="E221" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G221" s="16"/>
-      <c r="H221" s="14" t="s">
-        <v>228</v>
+      <c r="E221" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G221" s="13"/>
+      <c r="H221" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="K221" s="1"/>
       <c r="M221" s="2"/>
@@ -6814,43 +6873,43 @@
     </row>
     <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C222" s="11">
+        <v>484</v>
+      </c>
+      <c r="C222" s="10">
         <v>21</v>
       </c>
       <c r="D222">
         <v>586</v>
       </c>
-      <c r="E222" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G222" s="16"/>
-      <c r="H222" s="14" t="s">
-        <v>229</v>
+      <c r="E222" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G222" s="13"/>
+      <c r="H222" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="1"/>
     </row>
     <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C223" s="11">
+        <v>485</v>
+      </c>
+      <c r="C223" s="10">
         <v>21</v>
       </c>
       <c r="D223">
         <v>587</v>
       </c>
-      <c r="E223" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G223" s="16"/>
-      <c r="H223" s="14" t="s">
-        <v>230</v>
+      <c r="E223" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223" s="13"/>
+      <c r="H223" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="K223" s="1"/>
       <c r="M223" s="2"/>
@@ -6858,20 +6917,20 @@
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C224" s="11">
+        <v>486</v>
+      </c>
+      <c r="C224" s="10">
         <v>21</v>
       </c>
       <c r="D224">
         <v>588</v>
       </c>
-      <c r="E224" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G224" s="16"/>
-      <c r="H224" s="14" t="s">
-        <v>231</v>
+      <c r="E224" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G224" s="13"/>
+      <c r="H224" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="K224" s="1"/>
       <c r="M224" s="2"/>
@@ -6879,20 +6938,20 @@
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C225" s="11">
+        <v>487</v>
+      </c>
+      <c r="C225" s="10">
         <v>21</v>
       </c>
       <c r="D225">
         <v>589</v>
       </c>
-      <c r="E225" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G225" s="16"/>
-      <c r="H225" s="14" t="s">
-        <v>232</v>
+      <c r="E225" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G225" s="13"/>
+      <c r="H225" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="K225" s="1"/>
       <c r="M225" s="2"/>
@@ -6900,20 +6959,20 @@
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C226" s="11">
+        <v>488</v>
+      </c>
+      <c r="C226" s="10">
         <v>21</v>
       </c>
       <c r="D226">
         <v>590</v>
       </c>
-      <c r="E226" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="G226" s="16"/>
-      <c r="H226" s="14" t="s">
-        <v>233</v>
+      <c r="E226" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G226" s="13"/>
+      <c r="H226" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="K226" s="1"/>
       <c r="M226" s="2"/>
@@ -6921,20 +6980,20 @@
     </row>
     <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C227" s="11">
+        <v>489</v>
+      </c>
+      <c r="C227" s="10">
         <v>21</v>
       </c>
       <c r="D227">
         <v>591</v>
       </c>
-      <c r="E227" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="G227" s="16"/>
-      <c r="H227" s="14" t="s">
-        <v>234</v>
+      <c r="E227" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G227" s="13"/>
+      <c r="H227" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="K227" s="1"/>
       <c r="M227" s="2"/>
@@ -6942,20 +7001,20 @@
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C228" s="11">
+        <v>490</v>
+      </c>
+      <c r="C228" s="10">
         <v>21</v>
       </c>
       <c r="D228">
         <v>592</v>
       </c>
-      <c r="E228" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G228" s="16"/>
-      <c r="H228" s="14" t="s">
-        <v>235</v>
+      <c r="E228" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G228" s="13"/>
+      <c r="H228" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="K228" s="1"/>
       <c r="M228" s="2"/>
@@ -6963,20 +7022,20 @@
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C229" s="11">
+        <v>491</v>
+      </c>
+      <c r="C229" s="10">
         <v>21</v>
       </c>
       <c r="D229">
         <v>593</v>
       </c>
-      <c r="E229" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G229" s="16"/>
-      <c r="H229" s="14" t="s">
-        <v>236</v>
+      <c r="E229" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G229" s="13"/>
+      <c r="H229" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="K229" s="1"/>
       <c r="M229" s="2"/>
@@ -6984,20 +7043,20 @@
     </row>
     <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C230" s="11">
+        <v>492</v>
+      </c>
+      <c r="C230" s="10">
         <v>21</v>
       </c>
       <c r="D230">
         <v>594</v>
       </c>
-      <c r="E230" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G230" s="16"/>
-      <c r="H230" s="14" t="s">
-        <v>237</v>
+      <c r="E230" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G230" s="13"/>
+      <c r="H230" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="K230" s="1"/>
       <c r="M230" s="2"/>
@@ -7005,20 +7064,20 @@
     </row>
     <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C231" s="11">
+        <v>493</v>
+      </c>
+      <c r="C231" s="10">
         <v>21</v>
       </c>
       <c r="D231">
         <v>595</v>
       </c>
-      <c r="E231" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G231" s="16"/>
-      <c r="H231" s="14" t="s">
-        <v>238</v>
+      <c r="E231" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G231" s="13"/>
+      <c r="H231" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="K231" s="1"/>
       <c r="M231" s="2"/>
@@ -7026,20 +7085,20 @@
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C232" s="11">
+        <v>494</v>
+      </c>
+      <c r="C232" s="10">
         <v>21</v>
       </c>
       <c r="D232">
         <v>596</v>
       </c>
-      <c r="E232" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="G232" s="16"/>
-      <c r="H232" s="14" t="s">
-        <v>239</v>
+      <c r="E232" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G232" s="13"/>
+      <c r="H232" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="K232" s="1"/>
       <c r="M232" s="2"/>
@@ -7047,20 +7106,20 @@
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C233" s="11">
+        <v>495</v>
+      </c>
+      <c r="C233" s="10">
         <v>21</v>
       </c>
       <c r="D233">
         <v>597</v>
       </c>
-      <c r="E233" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G233" s="16"/>
-      <c r="H233" s="14" t="s">
-        <v>240</v>
+      <c r="E233" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G233" s="13"/>
+      <c r="H233" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="K233" s="1"/>
       <c r="M233" s="2"/>
@@ -7068,20 +7127,20 @@
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C234" s="11">
+        <v>496</v>
+      </c>
+      <c r="C234" s="10">
         <v>21</v>
       </c>
       <c r="D234">
         <v>598</v>
       </c>
-      <c r="E234" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G234" s="16"/>
-      <c r="H234" s="14" t="s">
-        <v>241</v>
+      <c r="E234" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G234" s="13"/>
+      <c r="H234" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="K234" s="1"/>
       <c r="M234" s="2"/>
@@ -7089,20 +7148,20 @@
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C235" s="11">
+        <v>497</v>
+      </c>
+      <c r="C235" s="10">
         <v>21</v>
       </c>
       <c r="D235">
         <v>599</v>
       </c>
-      <c r="E235" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G235" s="16"/>
-      <c r="H235" s="14" t="s">
-        <v>242</v>
+      <c r="E235" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G235" s="13"/>
+      <c r="H235" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="K235" s="1"/>
       <c r="M235" s="2"/>
@@ -7110,20 +7169,20 @@
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C236" s="11">
+        <v>498</v>
+      </c>
+      <c r="C236" s="10">
         <v>21</v>
       </c>
       <c r="D236">
         <v>600</v>
       </c>
-      <c r="E236" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G236" s="16"/>
-      <c r="H236" s="14" t="s">
-        <v>243</v>
+      <c r="E236" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G236" s="13"/>
+      <c r="H236" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="K236" s="1"/>
       <c r="M236" s="2"/>
@@ -7131,20 +7190,20 @@
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C237" s="11">
+        <v>499</v>
+      </c>
+      <c r="C237" s="10">
         <v>21</v>
       </c>
       <c r="D237">
         <v>601</v>
       </c>
-      <c r="E237" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G237" s="16"/>
-      <c r="H237" s="14" t="s">
-        <v>244</v>
+      <c r="E237" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G237" s="13"/>
+      <c r="H237" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="K237" s="1"/>
       <c r="M237" s="2"/>
@@ -7152,20 +7211,20 @@
     </row>
     <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C238" s="11">
+        <v>500</v>
+      </c>
+      <c r="C238" s="10">
         <v>21</v>
       </c>
       <c r="D238">
         <v>602</v>
       </c>
-      <c r="E238" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G238" s="16"/>
-      <c r="H238" s="14" t="s">
-        <v>245</v>
+      <c r="E238" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G238" s="13"/>
+      <c r="H238" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="K238" s="1"/>
       <c r="M238" s="2"/>
@@ -7173,20 +7232,20 @@
     </row>
     <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C239" s="11">
+        <v>501</v>
+      </c>
+      <c r="C239" s="10">
         <v>21</v>
       </c>
       <c r="D239">
         <v>603</v>
       </c>
-      <c r="E239" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G239" s="16"/>
-      <c r="H239" s="14" t="s">
-        <v>246</v>
+      <c r="E239" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G239" s="13"/>
+      <c r="H239" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="K239" s="1"/>
       <c r="M239" s="2"/>
@@ -7194,20 +7253,20 @@
     </row>
     <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C240" s="11">
+        <v>502</v>
+      </c>
+      <c r="C240" s="10">
         <v>21</v>
       </c>
       <c r="D240">
         <v>604</v>
       </c>
-      <c r="E240" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G240" s="16"/>
-      <c r="H240" s="14" t="s">
-        <v>247</v>
+      <c r="E240" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G240" s="13"/>
+      <c r="H240" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="K240" s="1"/>
       <c r="M240" s="2"/>
@@ -7215,20 +7274,20 @@
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C241" s="11">
+        <v>503</v>
+      </c>
+      <c r="C241" s="10">
         <v>21</v>
       </c>
       <c r="D241">
         <v>605</v>
       </c>
-      <c r="E241" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G241" s="16"/>
-      <c r="H241" s="14" t="s">
-        <v>248</v>
+      <c r="E241" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G241" s="13"/>
+      <c r="H241" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="K241" s="1"/>
       <c r="M241" s="2"/>
@@ -7236,20 +7295,20 @@
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C242" s="11">
+        <v>504</v>
+      </c>
+      <c r="C242" s="10">
         <v>21</v>
       </c>
       <c r="D242">
         <v>606</v>
       </c>
-      <c r="E242" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="G242" s="16"/>
-      <c r="H242" s="14" t="s">
-        <v>249</v>
+      <c r="E242" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G242" s="13"/>
+      <c r="H242" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="K242" s="1"/>
       <c r="M242" s="2"/>
@@ -7257,20 +7316,20 @@
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C243" s="11">
+        <v>505</v>
+      </c>
+      <c r="C243" s="10">
         <v>21</v>
       </c>
       <c r="D243">
         <v>607</v>
       </c>
-      <c r="E243" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G243" s="16"/>
-      <c r="H243" s="14" t="s">
-        <v>250</v>
+      <c r="E243" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G243" s="13"/>
+      <c r="H243" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="K243" s="1"/>
       <c r="M243" s="2"/>
@@ -7278,20 +7337,20 @@
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C244" s="11">
+        <v>506</v>
+      </c>
+      <c r="C244" s="10">
         <v>21</v>
       </c>
       <c r="D244">
         <v>608</v>
       </c>
-      <c r="E244" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G244" s="16"/>
-      <c r="H244" s="14" t="s">
-        <v>251</v>
+      <c r="E244" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G244" s="13"/>
+      <c r="H244" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="K244" s="1"/>
       <c r="M244" s="2"/>
@@ -7299,20 +7358,20 @@
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C245" s="11">
+        <v>507</v>
+      </c>
+      <c r="C245" s="10">
         <v>21</v>
       </c>
       <c r="D245">
         <v>609</v>
       </c>
-      <c r="E245" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G245" s="16"/>
-      <c r="H245" s="14" t="s">
-        <v>252</v>
+      <c r="E245" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G245" s="13"/>
+      <c r="H245" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="K245" s="1"/>
       <c r="M245" s="2"/>
@@ -7320,20 +7379,20 @@
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C246" s="11">
+        <v>508</v>
+      </c>
+      <c r="C246" s="10">
         <v>21</v>
       </c>
       <c r="D246">
         <v>610</v>
       </c>
-      <c r="E246" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="G246" s="16"/>
-      <c r="H246" s="14" t="s">
-        <v>253</v>
+      <c r="E246" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G246" s="13"/>
+      <c r="H246" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="K246" s="1"/>
       <c r="M246" s="2"/>
@@ -7341,20 +7400,20 @@
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C247" s="11">
+        <v>509</v>
+      </c>
+      <c r="C247" s="10">
         <v>21</v>
       </c>
       <c r="D247">
         <v>611</v>
       </c>
-      <c r="E247" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G247" s="16"/>
-      <c r="H247" s="14" t="s">
-        <v>254</v>
+      <c r="E247" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G247" s="13"/>
+      <c r="H247" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="K247" s="1"/>
       <c r="M247" s="2"/>
@@ -7362,20 +7421,20 @@
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C248" s="11">
+        <v>510</v>
+      </c>
+      <c r="C248" s="10">
         <v>21</v>
       </c>
       <c r="D248">
         <v>612</v>
       </c>
-      <c r="E248" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G248" s="16"/>
-      <c r="H248" s="14" t="s">
-        <v>255</v>
+      <c r="E248" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G248" s="13"/>
+      <c r="H248" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="K248" s="1"/>
       <c r="M248" s="2"/>
@@ -7383,20 +7442,20 @@
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C249" s="11">
+        <v>511</v>
+      </c>
+      <c r="C249" s="10">
         <v>21</v>
       </c>
       <c r="D249">
         <v>613</v>
       </c>
-      <c r="E249" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G249" s="16"/>
-      <c r="H249" s="14" t="s">
-        <v>256</v>
+      <c r="E249" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G249" s="13"/>
+      <c r="H249" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="K249" s="1"/>
       <c r="M249" s="2"/>
@@ -7404,20 +7463,20 @@
     </row>
     <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C250" s="11">
+        <v>512</v>
+      </c>
+      <c r="C250" s="10">
         <v>21</v>
       </c>
       <c r="D250">
         <v>614</v>
       </c>
-      <c r="E250" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="G250" s="16"/>
-      <c r="H250" s="14" t="s">
-        <v>257</v>
+      <c r="E250" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G250" s="13"/>
+      <c r="H250" s="19" t="s">
+        <v>253</v>
       </c>
       <c r="K250" s="1"/>
       <c r="M250" s="2"/>
@@ -7425,20 +7484,20 @@
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C251" s="11">
+        <v>513</v>
+      </c>
+      <c r="C251" s="10">
         <v>21</v>
       </c>
       <c r="D251">
         <v>615</v>
       </c>
-      <c r="E251" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G251" s="16"/>
-      <c r="H251" s="14" t="s">
-        <v>258</v>
+      <c r="E251" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G251" s="13"/>
+      <c r="H251" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="K251" s="1"/>
       <c r="M251" s="2"/>
@@ -7446,41 +7505,44 @@
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C252" s="11">
+        <v>514</v>
+      </c>
+      <c r="C252" s="10">
         <v>21</v>
       </c>
       <c r="D252">
         <v>616</v>
       </c>
-      <c r="E252" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="G252" s="16"/>
-      <c r="H252" s="14" t="s">
-        <v>259</v>
+      <c r="E252" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G252" s="13"/>
+      <c r="H252" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="K252" s="1"/>
+      <c r="L252" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="M252" s="2"/>
       <c r="N252" s="1"/>
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C253" s="11">
+        <v>515</v>
+      </c>
+      <c r="C253" s="10">
         <v>21</v>
       </c>
       <c r="D253">
         <v>617</v>
       </c>
-      <c r="E253" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G253" s="16"/>
-      <c r="H253" s="14" t="s">
-        <v>260</v>
+      <c r="E253" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G253" s="13"/>
+      <c r="H253" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="K253" s="1"/>
       <c r="M253" s="2"/>
@@ -7488,20 +7550,20 @@
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C254" s="11">
+        <v>516</v>
+      </c>
+      <c r="C254" s="10">
         <v>21</v>
       </c>
       <c r="D254">
         <v>618</v>
       </c>
-      <c r="E254" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="G254" s="16"/>
-      <c r="H254" s="14" t="s">
-        <v>261</v>
+      <c r="E254" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G254" s="13"/>
+      <c r="H254" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="K254" s="1"/>
       <c r="M254" s="2"/>
@@ -7509,29 +7571,29 @@
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C255" s="11">
+        <v>517</v>
+      </c>
+      <c r="C255" s="10">
         <v>21</v>
       </c>
       <c r="D255">
         <v>619</v>
       </c>
-      <c r="E255" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G255" s="16"/>
-      <c r="H255" s="14" t="s">
-        <v>262</v>
+      <c r="E255" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G255" s="13"/>
+      <c r="H255" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B2:J251">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J251">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
